--- a/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8C7649-DD90-4E29-B352-F66D15F725CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{941754DA-E180-4995-AB5E-4AD8AB88AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49020" yWindow="-75" windowWidth="18285" windowHeight="15585" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="36450" yWindow="-75" windowWidth="30855" windowHeight="15585" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="286" r:id="rId2"/>
     <sheet name="缺字表" sheetId="285" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="291" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="292" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId6"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="2410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="2405">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6625,10 +6625,6 @@
     <t>e7</t>
   </si>
   <si>
-    <t>yí</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sīu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6784,14 +6780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zít</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yîng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6836,9 +6824,6 @@
   </si>
   <si>
     <t>ggiǒng</t>
-  </si>
-  <si>
-    <t>ggiǒng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8113,9 +8098,6 @@
     <t>(21, 10)</t>
   </si>
   <si>
-    <t>(61, 12); (65, 8); (105, 15); (113, 5); (125, 13)</t>
-  </si>
-  <si>
     <t>(85, 10)</t>
   </si>
   <si>
@@ -8182,9 +8164,6 @@
     <t>(25, 8); (29, 8)</t>
   </si>
   <si>
-    <t>(25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (61, 12); (65, 8); (105, 15); (113, 5); (125, 13)</t>
-  </si>
-  <si>
     <t>(29, 6); (89, 16); (113, 9); (125, 6); (33, 6); (93, 16); (117, 9); (129, 6)</t>
   </si>
   <si>
@@ -8286,6 +8265,9 @@
   <si>
     <t>sū</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (61, 12); (65, 8); (105, 15); (113, 5); (125, 13); (29, 16); (29, 18)</t>
   </si>
 </sst>
 </file>
@@ -8753,7 +8735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8962,6 +8944,12 @@
     <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8970,6 +8958,10 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8982,7 +8974,55 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{35CF4CF4-6C05-4C83-A404-416353358D27}"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="256">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12420,7 +12460,7 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="73" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -12428,7 +12468,7 @@
       <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="72" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -12436,7 +12476,7 @@
       <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70" t="b">
+      <c r="C10" s="72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12444,7 +12484,7 @@
       <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="72">
         <v>120</v>
       </c>
     </row>
@@ -12452,7 +12492,7 @@
       <c r="B12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="72">
         <v>15</v>
       </c>
     </row>
@@ -12460,7 +12500,7 @@
       <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>1544</v>
       </c>
     </row>
@@ -12468,7 +12508,7 @@
       <c r="B14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="71" t="s">
         <v>1895</v>
       </c>
     </row>
@@ -12476,7 +12516,7 @@
       <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -12484,7 +12524,7 @@
       <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>1897</v>
       </c>
     </row>
@@ -12492,7 +12532,7 @@
       <c r="B17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -12500,7 +12540,7 @@
       <c r="B18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -12508,7 +12548,7 @@
       <c r="B19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="71" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -12582,7 +12622,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12596,7 +12636,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12610,7 +12650,7 @@
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12624,7 +12664,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12638,7 +12678,7 @@
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12688,7 +12728,7 @@
         <v>1355</v>
       </c>
       <c r="B10" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -12708,7 +12748,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12722,7 +12762,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12736,7 +12776,7 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12750,7 +12790,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12764,7 +12804,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12778,7 +12818,7 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12792,7 +12832,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12806,7 +12846,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12820,7 +12860,7 @@
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12834,7 +12874,7 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12862,7 +12902,7 @@
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12876,7 +12916,7 @@
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12890,7 +12930,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12898,13 +12938,13 @@
         <v>1359</v>
       </c>
       <c r="B25" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12918,7 +12958,7 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12932,7 +12972,7 @@
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12946,7 +12986,7 @@
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12954,7 +12994,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
@@ -12974,7 +13014,7 @@
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12988,7 +13028,7 @@
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13002,7 +13042,7 @@
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13016,7 +13056,7 @@
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13030,7 +13070,7 @@
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13044,7 +13084,7 @@
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13072,7 +13112,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13080,13 +13120,13 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13100,7 +13140,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13114,7 +13154,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13128,7 +13168,7 @@
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13142,7 +13182,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13164,13 +13204,13 @@
         <v>1365</v>
       </c>
       <c r="B44" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13184,7 +13224,7 @@
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13206,13 +13246,13 @@
         <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13220,13 +13260,13 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13240,7 +13280,7 @@
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13254,7 +13294,7 @@
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13268,7 +13308,7 @@
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13296,7 +13336,7 @@
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13310,7 +13350,7 @@
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13318,13 +13358,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13338,7 +13378,7 @@
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13352,7 +13392,7 @@
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13366,7 +13406,7 @@
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13380,7 +13420,7 @@
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13394,7 +13434,7 @@
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13408,7 +13448,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13422,7 +13462,7 @@
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13436,7 +13476,7 @@
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13450,7 +13490,7 @@
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13458,13 +13498,13 @@
         <v>1372</v>
       </c>
       <c r="B65" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -13486,13 +13526,13 @@
         <v>1373</v>
       </c>
       <c r="B67" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -13506,7 +13546,7 @@
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -13520,7 +13560,7 @@
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -13534,7 +13574,7 @@
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -13548,7 +13588,7 @@
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -13562,7 +13602,7 @@
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -13570,13 +13610,13 @@
         <v>1377</v>
       </c>
       <c r="B73" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -13590,7 +13630,7 @@
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13598,7 +13638,7 @@
         <v>1378</v>
       </c>
       <c r="B75" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
@@ -13618,7 +13658,7 @@
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13632,7 +13672,7 @@
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -13646,7 +13686,7 @@
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -13660,7 +13700,7 @@
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13682,13 +13722,13 @@
         <v>273</v>
       </c>
       <c r="B81" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13702,7 +13742,7 @@
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13716,7 +13756,7 @@
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13724,13 +13764,13 @@
         <v>1383</v>
       </c>
       <c r="B84" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13744,7 +13784,7 @@
         <v>499</v>
       </c>
       <c r="D85" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13758,7 +13798,7 @@
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13772,7 +13812,7 @@
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13780,13 +13820,13 @@
         <v>1386</v>
       </c>
       <c r="B88" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13800,7 +13840,7 @@
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13814,7 +13854,7 @@
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13828,7 +13868,7 @@
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -13842,7 +13882,7 @@
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13856,7 +13896,7 @@
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13870,7 +13910,7 @@
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13884,7 +13924,7 @@
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -13898,7 +13938,7 @@
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -13912,7 +13952,7 @@
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13926,7 +13966,7 @@
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -13940,7 +13980,7 @@
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2375</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13954,7 +13994,7 @@
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -13968,7 +14008,7 @@
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -13982,7 +14022,7 @@
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13996,7 +14036,7 @@
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14010,7 +14050,7 @@
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14024,7 +14064,7 @@
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -14038,7 +14078,7 @@
         <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14052,7 +14092,7 @@
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -14066,7 +14106,7 @@
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14080,7 +14120,7 @@
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -14094,7 +14134,7 @@
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -14122,7 +14162,7 @@
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -14130,13 +14170,13 @@
         <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -14150,7 +14190,7 @@
         <v>499</v>
       </c>
       <c r="D114" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -14164,7 +14204,7 @@
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -14178,7 +14218,7 @@
         <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -14192,7 +14232,7 @@
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -14206,7 +14246,7 @@
         <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -14220,7 +14260,7 @@
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -14234,7 +14274,7 @@
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -14248,7 +14288,7 @@
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -14262,7 +14302,7 @@
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -14276,7 +14316,7 @@
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -14284,13 +14324,13 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -14304,7 +14344,7 @@
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -14318,7 +14358,7 @@
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -14332,7 +14372,7 @@
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -14346,7 +14386,7 @@
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -14360,7 +14400,7 @@
         <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -14374,7 +14414,7 @@
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -14388,7 +14428,7 @@
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -14402,7 +14442,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -14416,7 +14456,7 @@
         <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -14430,7 +14470,7 @@
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -14444,7 +14484,7 @@
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -14500,7 +14540,7 @@
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -14514,7 +14554,7 @@
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -14528,7 +14568,7 @@
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -14550,13 +14590,13 @@
         <v>251</v>
       </c>
       <c r="B143" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C143" t="s">
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -14570,7 +14610,7 @@
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -14578,13 +14618,13 @@
         <v>110</v>
       </c>
       <c r="B145" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -14598,7 +14638,7 @@
         <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -14606,13 +14646,13 @@
         <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C147" t="s">
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -14626,7 +14666,7 @@
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -14654,7 +14694,7 @@
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -14662,13 +14702,13 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C151" t="s">
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -14682,7 +14722,7 @@
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -14690,13 +14730,13 @@
         <v>1414</v>
       </c>
       <c r="B153" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -14710,7 +14750,7 @@
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -14718,13 +14758,13 @@
         <v>236</v>
       </c>
       <c r="B155" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -14738,7 +14778,7 @@
         <v>499</v>
       </c>
       <c r="D156" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -14752,7 +14792,7 @@
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -14766,7 +14806,7 @@
         <v>499</v>
       </c>
       <c r="D158" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14774,7 +14814,7 @@
         <v>1417</v>
       </c>
       <c r="B159" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
@@ -14794,7 +14834,7 @@
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -14802,7 +14842,7 @@
         <v>1418</v>
       </c>
       <c r="B161" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
@@ -14822,7 +14862,7 @@
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -14830,7 +14870,7 @@
         <v>1419</v>
       </c>
       <c r="B163" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
@@ -14850,7 +14890,7 @@
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -14864,7 +14904,7 @@
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -14872,7 +14912,7 @@
         <v>1421</v>
       </c>
       <c r="B166" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
@@ -14892,7 +14932,7 @@
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -14914,13 +14954,13 @@
         <v>1423</v>
       </c>
       <c r="B169" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C169" t="s">
         <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -14934,7 +14974,7 @@
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -14948,7 +14988,7 @@
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -14956,7 +14996,7 @@
         <v>1425</v>
       </c>
       <c r="B172" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
@@ -14976,7 +15016,7 @@
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -14990,7 +15030,7 @@
         <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -15004,7 +15044,7 @@
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -15018,7 +15058,7 @@
         <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -15032,7 +15072,7 @@
         <v>499</v>
       </c>
       <c r="D177" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -15046,7 +15086,7 @@
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -15060,7 +15100,7 @@
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -15074,7 +15114,7 @@
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -15088,7 +15128,7 @@
         <v>499</v>
       </c>
       <c r="D181" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -15102,7 +15142,7 @@
         <v>499</v>
       </c>
       <c r="D182" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -15116,7 +15156,7 @@
         <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -15130,7 +15170,7 @@
         <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -15144,7 +15184,7 @@
         <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -15172,7 +15212,7 @@
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -15180,7 +15220,7 @@
         <v>1431</v>
       </c>
       <c r="B188" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
@@ -15200,7 +15240,7 @@
         <v>499</v>
       </c>
       <c r="D189" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -15214,7 +15254,7 @@
         <v>499</v>
       </c>
       <c r="D190" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -15228,7 +15268,7 @@
         <v>499</v>
       </c>
       <c r="D191" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -15250,13 +15290,13 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
       </c>
       <c r="D193" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -15270,7 +15310,7 @@
         <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -15278,13 +15318,13 @@
         <v>275</v>
       </c>
       <c r="B195" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C195" t="s">
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -15298,7 +15338,7 @@
         <v>499</v>
       </c>
       <c r="D196" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -15312,7 +15352,7 @@
         <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -15340,7 +15380,7 @@
         <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -15354,7 +15394,7 @@
         <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -15368,7 +15408,7 @@
         <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -15382,7 +15422,7 @@
         <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -15390,7 +15430,7 @@
         <v>1437</v>
       </c>
       <c r="B203" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C203" t="s">
         <v>499</v>
@@ -15410,7 +15450,7 @@
         <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -15418,13 +15458,13 @@
         <v>1438</v>
       </c>
       <c r="B205" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -15438,7 +15478,7 @@
         <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -15452,7 +15492,7 @@
         <v>499</v>
       </c>
       <c r="D207" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -15466,7 +15506,7 @@
         <v>499</v>
       </c>
       <c r="D208" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -15480,7 +15520,7 @@
         <v>499</v>
       </c>
       <c r="D209" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -15494,7 +15534,7 @@
         <v>499</v>
       </c>
       <c r="D210" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -15508,7 +15548,7 @@
         <v>499</v>
       </c>
       <c r="D211" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -15522,7 +15562,7 @@
         <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -15536,7 +15576,7 @@
         <v>499</v>
       </c>
       <c r="D213" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -15550,7 +15590,7 @@
         <v>499</v>
       </c>
       <c r="D214" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -15564,7 +15604,7 @@
         <v>499</v>
       </c>
       <c r="D215" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -15578,7 +15618,7 @@
         <v>499</v>
       </c>
       <c r="D216" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -15592,7 +15632,7 @@
         <v>499</v>
       </c>
       <c r="D217" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -15606,7 +15646,7 @@
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -15620,7 +15660,7 @@
         <v>499</v>
       </c>
       <c r="D219" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -15642,13 +15682,13 @@
         <v>1446</v>
       </c>
       <c r="B221" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="C221" t="s">
         <v>499</v>
       </c>
       <c r="D221" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -15656,13 +15696,13 @@
         <v>1446</v>
       </c>
       <c r="B222" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C222" t="s">
         <v>499</v>
       </c>
       <c r="D222" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -15676,7 +15716,7 @@
         <v>499</v>
       </c>
       <c r="D223" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -15684,7 +15724,7 @@
         <v>1447</v>
       </c>
       <c r="B224" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C224" t="s">
         <v>499</v>
@@ -15704,7 +15744,7 @@
         <v>499</v>
       </c>
       <c r="D225" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -15712,13 +15752,13 @@
         <v>1448</v>
       </c>
       <c r="B226" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="C226" t="s">
         <v>499</v>
       </c>
       <c r="D226" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -15732,7 +15772,7 @@
         <v>499</v>
       </c>
       <c r="D227" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -15746,7 +15786,7 @@
         <v>499</v>
       </c>
       <c r="D228" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -15760,7 +15800,7 @@
         <v>499</v>
       </c>
       <c r="D229" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -15774,7 +15814,7 @@
         <v>499</v>
       </c>
       <c r="D230" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -15788,7 +15828,7 @@
         <v>499</v>
       </c>
       <c r="D231" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -15796,13 +15836,13 @@
         <v>1452</v>
       </c>
       <c r="B232" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="C232" t="s">
         <v>499</v>
       </c>
       <c r="D232" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -15816,7 +15856,7 @@
         <v>499</v>
       </c>
       <c r="D233" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -15830,7 +15870,7 @@
         <v>499</v>
       </c>
       <c r="D234" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -15844,7 +15884,7 @@
         <v>499</v>
       </c>
       <c r="D235" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -15858,7 +15898,7 @@
         <v>499</v>
       </c>
       <c r="D236" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -15872,7 +15912,7 @@
         <v>499</v>
       </c>
       <c r="D237" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -15886,7 +15926,7 @@
         <v>499</v>
       </c>
       <c r="D238" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -15908,13 +15948,13 @@
         <v>1458</v>
       </c>
       <c r="B240" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="C240" t="s">
         <v>499</v>
       </c>
       <c r="D240" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -15928,7 +15968,7 @@
         <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -15936,13 +15976,13 @@
         <v>1159</v>
       </c>
       <c r="B242" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="C242" t="s">
         <v>499</v>
       </c>
       <c r="D242" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -15956,7 +15996,7 @@
         <v>499</v>
       </c>
       <c r="D243" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -15970,7 +16010,7 @@
         <v>499</v>
       </c>
       <c r="D244" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -15978,7 +16018,7 @@
         <v>1460</v>
       </c>
       <c r="B245" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="C245" t="s">
         <v>499</v>
@@ -15998,7 +16038,7 @@
         <v>499</v>
       </c>
       <c r="D246" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -16012,7 +16052,7 @@
         <v>499</v>
       </c>
       <c r="D247" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -16026,7 +16066,7 @@
         <v>499</v>
       </c>
       <c r="D248" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -16040,7 +16080,7 @@
         <v>499</v>
       </c>
       <c r="D249" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -16054,7 +16094,7 @@
         <v>499</v>
       </c>
       <c r="D250" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -16068,7 +16108,7 @@
         <v>499</v>
       </c>
       <c r="D251" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -16076,7 +16116,7 @@
         <v>162</v>
       </c>
       <c r="B252" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="C252" t="s">
         <v>499</v>
@@ -16096,7 +16136,7 @@
         <v>499</v>
       </c>
       <c r="D253" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -16118,13 +16158,13 @@
         <v>1465</v>
       </c>
       <c r="B255" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="C255" t="s">
         <v>499</v>
       </c>
       <c r="D255" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -16138,7 +16178,7 @@
         <v>499</v>
       </c>
       <c r="D256" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -16152,7 +16192,7 @@
         <v>499</v>
       </c>
       <c r="D257" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -16166,7 +16206,7 @@
         <v>499</v>
       </c>
       <c r="D258" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -16180,7 +16220,7 @@
         <v>499</v>
       </c>
       <c r="D259" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -16194,7 +16234,7 @@
         <v>499</v>
       </c>
       <c r="D260" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -16208,7 +16248,7 @@
         <v>499</v>
       </c>
       <c r="D261" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -16222,7 +16262,7 @@
         <v>499</v>
       </c>
       <c r="D262" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -16236,7 +16276,7 @@
         <v>499</v>
       </c>
       <c r="D263" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -16250,7 +16290,7 @@
         <v>499</v>
       </c>
       <c r="D264" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -16264,7 +16304,7 @@
         <v>499</v>
       </c>
       <c r="D265" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -16278,7 +16318,7 @@
         <v>499</v>
       </c>
       <c r="D266" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -16292,7 +16332,7 @@
         <v>499</v>
       </c>
       <c r="D267" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -16300,13 +16340,13 @@
         <v>1473</v>
       </c>
       <c r="B268" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="C268" t="s">
         <v>499</v>
       </c>
       <c r="D268" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -16320,7 +16360,7 @@
         <v>499</v>
       </c>
       <c r="D269" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -16334,7 +16374,7 @@
         <v>499</v>
       </c>
       <c r="D270" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -16348,7 +16388,7 @@
         <v>499</v>
       </c>
       <c r="D271" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -16362,7 +16402,7 @@
         <v>499</v>
       </c>
       <c r="D272" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -16376,7 +16416,7 @@
         <v>499</v>
       </c>
       <c r="D273" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -16398,13 +16438,13 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="C275" t="s">
         <v>499</v>
       </c>
       <c r="D275" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -16418,7 +16458,7 @@
         <v>499</v>
       </c>
       <c r="D276" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -16432,7 +16472,7 @@
         <v>499</v>
       </c>
       <c r="D277" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -16446,7 +16486,7 @@
         <v>499</v>
       </c>
       <c r="D278" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -16460,7 +16500,7 @@
         <v>499</v>
       </c>
       <c r="D279" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -16474,7 +16514,7 @@
         <v>499</v>
       </c>
       <c r="D280" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -16488,7 +16528,7 @@
         <v>499</v>
       </c>
       <c r="D281" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -16502,7 +16542,7 @@
         <v>499</v>
       </c>
       <c r="D282" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -16516,7 +16556,7 @@
         <v>499</v>
       </c>
       <c r="D283" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -16530,7 +16570,7 @@
         <v>499</v>
       </c>
       <c r="D284" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -16544,7 +16584,7 @@
         <v>499</v>
       </c>
       <c r="D285" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -16558,7 +16598,7 @@
         <v>499</v>
       </c>
       <c r="D286" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -16572,7 +16612,7 @@
         <v>499</v>
       </c>
       <c r="D287" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -16586,7 +16626,7 @@
         <v>499</v>
       </c>
       <c r="D288" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -16652,7 +16692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20AD8C-BD00-4D40-9E8C-35CF4A7BD280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF3FA2-6E4F-4842-910C-270E65CE26E4}">
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16698,7 +16738,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16720,7 +16760,7 @@
         <v>1355</v>
       </c>
       <c r="B5" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
@@ -16740,7 +16780,7 @@
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16754,7 +16794,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16768,7 +16808,7 @@
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16776,13 +16816,13 @@
         <v>1359</v>
       </c>
       <c r="B9" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -16796,7 +16836,7 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -16804,7 +16844,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
@@ -16824,7 +16864,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16832,13 +16872,13 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -16852,7 +16892,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -16860,13 +16900,13 @@
         <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16894,7 +16934,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16908,7 +16948,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16922,7 +16962,7 @@
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16936,7 +16976,7 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -16950,7 +16990,7 @@
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16964,7 +17004,7 @@
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -16992,7 +17032,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -17006,7 +17046,7 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -17020,7 +17060,7 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -17034,133 +17074,133 @@
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>345</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1575</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>2162</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>2171</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1201</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1016</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>1201</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>2188</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1187</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>1492</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1021</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>1187</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>1492</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>2189</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>2352</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -17174,7 +17214,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -17188,7 +17228,7 @@
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -17210,7 +17250,7 @@
         <v>1418</v>
       </c>
       <c r="B40" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
@@ -17286,7 +17326,7 @@
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17328,7 +17368,7 @@
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17356,7 +17396,7 @@
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17384,7 +17424,7 @@
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17398,7 +17438,7 @@
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17412,7 +17452,7 @@
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17426,7 +17466,7 @@
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17434,13 +17474,13 @@
         <v>1446</v>
       </c>
       <c r="B56" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -17468,7 +17508,7 @@
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -17482,7 +17522,7 @@
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -17496,7 +17536,7 @@
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -17538,7 +17578,7 @@
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -17552,7 +17592,7 @@
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -17566,7 +17606,7 @@
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -17580,7 +17620,7 @@
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -17588,13 +17628,13 @@
         <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -17608,7 +17648,7 @@
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
   </sheetData>
@@ -17792,30 +17832,30 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="75" t="s">
         <v>1900</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="75" t="s">
         <v>1602</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="75" t="s">
         <v>1603</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="75" t="s">
         <v>1616</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="75" t="s">
         <v>1903</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="75" t="s">
         <v>1901</v>
       </c>
-      <c r="J5" s="72" t="str">
+      <c r="J5" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -17840,7 +17880,7 @@
         <v>1907</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -17868,7 +17908,7 @@
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>611</v>
@@ -17900,7 +17940,7 @@
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>611</v>
@@ -17933,49 +17973,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="75" t="s">
         <v>1584</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="75" t="s">
         <v>1585</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>1586</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="75" t="s">
         <v>1587</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="75" t="s">
         <v>1589</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="75" t="s">
         <v>1590</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="75" t="s">
         <v>1591</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="75" t="s">
         <v>1592</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="N9" s="72" t="s">
+      <c r="N9" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="75" t="s">
         <v>1594</v>
       </c>
-      <c r="P9" s="72" t="s">
+      <c r="P9" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="Q9" s="72" t="s">
+      <c r="Q9" s="75" t="s">
         <v>1596</v>
       </c>
-      <c r="R9" s="72" t="s">
+      <c r="R9" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S9" s="21"/>
@@ -17991,17 +18031,17 @@
         <v>1910</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>1914</v>
@@ -18033,19 +18073,19 @@
         <v>685</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>623</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
@@ -18057,7 +18097,7 @@
         <v>1803</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="R11" s="54"/>
       <c r="V11" s="63"/>
@@ -18068,19 +18108,19 @@
         <v>685</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>685</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>623</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>601</v>
@@ -18102,7 +18142,7 @@
         <v>1803</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="19"/>
@@ -18113,49 +18153,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="75" t="s">
         <v>1597</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="75" t="s">
         <v>1597</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="75" t="s">
         <v>1599</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="75" t="s">
         <v>1600</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="75" t="s">
         <v>1601</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="75" t="s">
         <v>1602</v>
       </c>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="75" t="s">
         <v>1603</v>
       </c>
-      <c r="M13" s="72" t="s">
+      <c r="M13" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="N13" s="72" t="s">
+      <c r="N13" s="75" t="s">
         <v>1604</v>
       </c>
-      <c r="O13" s="72" t="s">
+      <c r="O13" s="75" t="s">
         <v>1605</v>
       </c>
-      <c r="P13" s="72" t="s">
+      <c r="P13" s="75" t="s">
         <v>1606</v>
       </c>
-      <c r="Q13" s="72" t="s">
+      <c r="Q13" s="75" t="s">
         <v>1607</v>
       </c>
-      <c r="R13" s="72" t="s">
+      <c r="R13" s="75" t="s">
         <v>1608</v>
       </c>
       <c r="S13" s="21"/>
@@ -18164,22 +18204,22 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>2299</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>2300</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>2300</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>2302</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>2303</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>2304</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>1918</v>
@@ -18192,16 +18232,16 @@
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>1922</v>
       </c>
-      <c r="O14" s="24" t="s">
-        <v>1923</v>
-      </c>
       <c r="P14" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="31"/>
@@ -18219,7 +18259,7 @@
         <v>746</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
@@ -18233,7 +18273,7 @@
       </c>
       <c r="Q15" s="54"/>
       <c r="R15" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="V15" s="63"/>
     </row>
@@ -18256,7 +18296,7 @@
         <v>746</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>1805</v>
@@ -18288,49 +18328,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="75" t="s">
         <v>1609</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="75" t="s">
         <v>1610</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="75" t="s">
         <v>1611</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="75" t="s">
         <v>1612</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="75" t="s">
         <v>1613</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="75" t="s">
         <v>1614</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="75" t="s">
         <v>1615</v>
       </c>
-      <c r="L17" s="72" t="s">
+      <c r="L17" s="75" t="s">
         <v>1616</v>
       </c>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="75" t="s">
         <v>1617</v>
       </c>
-      <c r="O17" s="72" t="s">
+      <c r="O17" s="75" t="s">
         <v>1618</v>
       </c>
-      <c r="P17" s="72" t="s">
+      <c r="P17" s="75" t="s">
         <v>1619</v>
       </c>
-      <c r="Q17" s="72" t="s">
+      <c r="Q17" s="75" t="s">
         <v>1620</v>
       </c>
-      <c r="R17" s="72" t="s">
+      <c r="R17" s="75" t="s">
         <v>1600</v>
       </c>
       <c r="S17" s="21"/>
@@ -18339,45 +18379,45 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="24" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>1925</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>1926</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>1927</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>1928</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L18" s="24" t="s">
         <v>1907</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="S18" s="31"/>
       <c r="V18" s="63"/>
@@ -18441,7 +18481,7 @@
         <v>756</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>1812</v>
@@ -18461,49 +18501,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="75" t="s">
         <v>1621</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="75" t="s">
         <v>1622</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="75" t="s">
         <v>1623</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="75" t="s">
         <v>1624</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="75" t="s">
         <v>1604</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="75" t="s">
         <v>1625</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="75" t="s">
         <v>1626</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="75" t="s">
         <v>1627</v>
       </c>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="75" t="s">
         <v>1619</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="75" t="s">
         <v>1628</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="75" t="s">
         <v>1629</v>
       </c>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="75" t="s">
         <v>1630</v>
       </c>
-      <c r="Q21" s="72" t="s">
+      <c r="Q21" s="75" t="s">
         <v>1631</v>
       </c>
-      <c r="R21" s="72" t="s">
+      <c r="R21" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S21" s="21"/>
@@ -18512,42 +18552,42 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>1936</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>1937</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24" t="s">
         <v>1916</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="N22" s="24" t="s">
+        <v>1940</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>2306</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>1941</v>
       </c>
-      <c r="O22" s="24" t="s">
-        <v>2310</v>
-      </c>
-      <c r="P22" s="24" t="s">
+      <c r="Q22" s="24" t="s">
         <v>1942</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>1943</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="31"/>
@@ -18569,7 +18609,7 @@
       <c r="J23" s="54"/>
       <c r="K23" s="54"/>
       <c r="L23" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="M23" s="54"/>
       <c r="N23" s="54" t="s">
@@ -18605,7 +18645,7 @@
         <v>597</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>1812</v>
@@ -18634,49 +18674,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="75" t="s">
         <v>1632</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="75" t="s">
         <v>1633</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="75" t="s">
         <v>1634</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="75" t="s">
         <v>1635</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="75" t="s">
         <v>1636</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="75" t="s">
         <v>1637</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="75" t="s">
         <v>1638</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="75" t="s">
         <v>1629</v>
       </c>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="75" t="s">
         <v>1639</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="75" t="s">
         <v>1640</v>
       </c>
-      <c r="O25" s="72" t="s">
+      <c r="O25" s="75" t="s">
         <v>1641</v>
       </c>
-      <c r="P25" s="72" t="s">
+      <c r="P25" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="Q25" s="72" t="s">
+      <c r="Q25" s="75" t="s">
         <v>1642</v>
       </c>
-      <c r="R25" s="72" t="s">
+      <c r="R25" s="75" t="s">
         <v>1643</v>
       </c>
       <c r="S25" s="21"/>
@@ -18685,45 +18725,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="24" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="F26" s="24" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>1946</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>1947</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>1948</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>1949</v>
-      </c>
       <c r="K26" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>2306</v>
+      </c>
+      <c r="M26" s="24" t="s">
         <v>1952</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>2310</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>1953</v>
-      </c>
       <c r="N26" s="24" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="24" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="S26" s="31"/>
       <c r="V26" s="63"/>
@@ -18747,9 +18787,13 @@
       <c r="M27" s="54"/>
       <c r="N27" s="54"/>
       <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
+      <c r="P27" s="54" t="s">
+        <v>617</v>
+      </c>
       <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="R27" s="54" t="s">
+        <v>2278</v>
+      </c>
       <c r="U27" s="35" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$30,4,1)</f>
         <v>n</v>
@@ -18791,13 +18835,13 @@
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18" t="s">
-        <v>1963</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="18" t="s">
         <v>1819</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>1963</v>
+        <v>617</v>
       </c>
       <c r="S28" s="19"/>
       <c r="U28" s="35" t="str">
@@ -18811,49 +18855,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="75" t="s">
         <v>1644</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="75" t="s">
         <v>1645</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="75" t="s">
         <v>1625</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="75" t="s">
         <v>1649</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="75" t="s">
         <v>1650</v>
       </c>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="75" t="s">
         <v>1651</v>
       </c>
-      <c r="O29" s="72" t="s">
+      <c r="O29" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="P29" s="72" t="s">
+      <c r="P29" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="75" t="s">
         <v>1639</v>
       </c>
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="75" t="s">
         <v>1652</v>
       </c>
       <c r="S29" s="21"/>
@@ -18866,45 +18910,45 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>1959</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>2315</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="J30" s="24" t="s">
+        <v>1937</v>
+      </c>
+      <c r="K30" s="24" t="s">
         <v>1960</v>
       </c>
-      <c r="J30" s="24" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>1961</v>
-      </c>
       <c r="L30" s="24" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24" t="s">
-        <v>1964</v>
+        <v>2317</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R30" s="24" t="s">
-        <v>1964</v>
+        <v>2317</v>
       </c>
       <c r="S30" s="31"/>
       <c r="U30" s="35" t="str">
@@ -18984,37 +19028,37 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="75" t="s">
         <v>1653</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="75" t="s">
         <v>1654</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="75" t="s">
         <v>1637</v>
       </c>
-      <c r="I33" s="72" t="s">
+      <c r="I33" s="75" t="s">
         <v>1656</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="75" t="s">
         <v>1658</v>
       </c>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="75" t="s">
         <v>1659</v>
       </c>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="N33" s="72" t="str">
+      <c r="N33" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19029,29 +19073,29 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="G34" s="24" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K34" s="24" t="s">
         <v>1966</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I34" s="24" t="s">
+      <c r="L34" s="24" t="s">
         <v>1967</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>1968</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>1969</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>1970</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -19107,7 +19151,7 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="72" t="str">
+      <c r="D37" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19157,7 +19201,7 @@
         <v>720</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="G39" s="54"/>
       <c r="H39" s="54" t="s">
@@ -19184,7 +19228,7 @@
         <v>720</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18" t="s">
@@ -19197,7 +19241,7 @@
         <v>645</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18" t="s">
@@ -19224,49 +19268,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="75" t="s">
         <v>1661</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="75" t="s">
         <v>1607</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="75" t="s">
         <v>1662</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="I41" s="75" t="s">
         <v>1663</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="J41" s="75" t="s">
         <v>1664</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="K41" s="75" t="s">
         <v>1628</v>
       </c>
-      <c r="L41" s="72" t="s">
+      <c r="L41" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="M41" s="72" t="s">
+      <c r="M41" s="75" t="s">
         <v>1665</v>
       </c>
-      <c r="N41" s="72" t="s">
+      <c r="N41" s="75" t="s">
         <v>1666</v>
       </c>
-      <c r="O41" s="72" t="s">
+      <c r="O41" s="75" t="s">
         <v>1585</v>
       </c>
-      <c r="P41" s="72" t="s">
+      <c r="P41" s="75" t="s">
         <v>1656</v>
       </c>
-      <c r="Q41" s="72" t="s">
+      <c r="Q41" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="R41" s="72" t="s">
+      <c r="R41" s="75" t="s">
         <v>1667</v>
       </c>
       <c r="S41" s="21"/>
@@ -19278,40 +19322,40 @@
         <v>1908</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="O42" s="24" t="s">
         <v>1910</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="63"/>
@@ -19389,49 +19433,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="75" t="s">
         <v>1668</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="75" t="s">
         <v>1669</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="75" t="s">
         <v>1670</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="75" t="s">
         <v>1671</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="75" t="s">
         <v>1672</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="75" t="s">
         <v>1673</v>
       </c>
-      <c r="L45" s="72" t="s">
+      <c r="L45" s="75" t="s">
         <v>1674</v>
       </c>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="75" t="s">
         <v>1675</v>
       </c>
-      <c r="N45" s="72" t="s">
+      <c r="N45" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="O45" s="72" t="s">
+      <c r="O45" s="75" t="s">
         <v>1651</v>
       </c>
-      <c r="P45" s="72" t="s">
+      <c r="P45" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="Q45" s="72" t="s">
+      <c r="Q45" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="R45" s="72" t="s">
+      <c r="R45" s="75" t="s">
         <v>1637</v>
       </c>
       <c r="S45" s="21"/>
@@ -19440,45 +19484,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="N46" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="24" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -19556,49 +19600,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="75" t="s">
         <v>1677</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="75" t="s">
         <v>1678</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="75" t="s">
         <v>1679</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="75" t="s">
         <v>1680</v>
       </c>
-      <c r="H49" s="72" t="s">
+      <c r="H49" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="I49" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="75" t="s">
         <v>1637</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="75" t="s">
         <v>1681</v>
       </c>
-      <c r="L49" s="72" t="s">
+      <c r="L49" s="75" t="s">
         <v>1682</v>
       </c>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="75" t="s">
         <v>1683</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="O49" s="72" t="s">
+      <c r="O49" s="75" t="s">
         <v>1684</v>
       </c>
-      <c r="P49" s="72" t="s">
+      <c r="P49" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="Q49" s="72" t="s">
+      <c r="Q49" s="75" t="s">
         <v>1685</v>
       </c>
-      <c r="R49" s="72" t="s">
+      <c r="R49" s="75" t="s">
         <v>1686</v>
       </c>
       <c r="S49" s="21"/>
@@ -19607,45 +19651,45 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="L50" s="24" t="s">
         <v>1908</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="N50" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="P50" s="24"/>
       <c r="Q50" s="24" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="R50" s="24" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="S50" s="31"/>
       <c r="V50" s="63"/>
@@ -19655,7 +19699,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -19675,10 +19719,10 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="18" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -19701,16 +19745,16 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="72" t="s">
+      <c r="D53" s="75" t="s">
         <v>1687</v>
       </c>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="75" t="s">
         <v>1607</v>
       </c>
-      <c r="F53" s="72" t="s">
+      <c r="F53" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="G53" s="72" t="str">
+      <c r="G53" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19732,10 +19776,10 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
       <c r="D54" s="24" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -19798,7 +19842,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="72" t="str">
+      <c r="D57" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19858,7 +19902,7 @@
       <c r="J59" s="54"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54" t="s">
-        <v>617</v>
+        <v>2278</v>
       </c>
       <c r="M59" s="54" t="s">
         <v>1844</v>
@@ -19923,49 +19967,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="75" t="s">
         <v>1688</v>
       </c>
-      <c r="E61" s="72" t="s">
+      <c r="E61" s="75" t="s">
         <v>1689</v>
       </c>
-      <c r="F61" s="72" t="s">
+      <c r="F61" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="G61" s="72" t="s">
+      <c r="G61" s="75" t="s">
         <v>1690</v>
       </c>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="75" t="s">
         <v>1691</v>
       </c>
-      <c r="I61" s="72" t="s">
+      <c r="I61" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="J61" s="72" t="s">
+      <c r="J61" s="75" t="s">
         <v>1672</v>
       </c>
-      <c r="K61" s="72" t="s">
+      <c r="K61" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="L61" s="72" t="s">
+      <c r="L61" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="M61" s="72" t="s">
+      <c r="M61" s="75" t="s">
         <v>1692</v>
       </c>
-      <c r="N61" s="72" t="s">
+      <c r="N61" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="O61" s="72" t="s">
+      <c r="O61" s="75" t="s">
         <v>1693</v>
       </c>
-      <c r="P61" s="72" t="s">
+      <c r="P61" s="75" t="s">
         <v>1694</v>
       </c>
-      <c r="Q61" s="72" t="s">
+      <c r="Q61" s="75" t="s">
         <v>1695</v>
       </c>
-      <c r="R61" s="72" t="s">
+      <c r="R61" s="75" t="s">
         <v>1680</v>
       </c>
       <c r="S61" s="21"/>
@@ -19974,45 +20018,45 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="24" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="Q62" s="24" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="S62" s="31"/>
       <c r="V62" s="63"/>
@@ -20025,13 +20069,13 @@
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="54" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="G63" s="54" t="s">
         <v>1847</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="I63" s="54"/>
       <c r="J63" s="54"/>
@@ -20040,7 +20084,7 @@
       </c>
       <c r="L63" s="54"/>
       <c r="M63" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="N63" s="54"/>
       <c r="O63" s="54"/>
@@ -20056,7 +20100,7 @@
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>1847</v>
@@ -20081,7 +20125,7 @@
         <v>1850</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="P64" s="18" t="s">
         <v>1839</v>
@@ -20098,49 +20142,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="75" t="s">
         <v>1696</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="75" t="s">
         <v>1697</v>
       </c>
-      <c r="G65" s="72" t="s">
+      <c r="G65" s="75" t="s">
         <v>1698</v>
       </c>
-      <c r="H65" s="72" t="s">
+      <c r="H65" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="I65" s="72" t="s">
+      <c r="I65" s="75" t="s">
         <v>1699</v>
       </c>
-      <c r="J65" s="72" t="s">
+      <c r="J65" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="K65" s="72" t="s">
+      <c r="K65" s="75" t="s">
         <v>1700</v>
       </c>
-      <c r="L65" s="72" t="s">
+      <c r="L65" s="75" t="s">
         <v>1626</v>
       </c>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="75" t="s">
         <v>1693</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="75" t="s">
         <v>1701</v>
       </c>
-      <c r="O65" s="72" t="s">
+      <c r="O65" s="75" t="s">
         <v>1702</v>
       </c>
-      <c r="P65" s="72" t="s">
+      <c r="P65" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="Q65" s="72" t="s">
+      <c r="Q65" s="75" t="s">
         <v>1703</v>
       </c>
-      <c r="R65" s="72" t="s">
+      <c r="R65" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S65" s="21"/>
@@ -20149,42 +20193,42 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
       <c r="D66" s="24" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="N66" s="24" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O66" s="24" t="s">
+        <v>2008</v>
+      </c>
+      <c r="P66" s="24" t="s">
+        <v>1982</v>
+      </c>
+      <c r="Q66" s="24" t="s">
         <v>2009</v>
-      </c>
-      <c r="O66" s="24" t="s">
-        <v>2012</v>
-      </c>
-      <c r="P66" s="24" t="s">
-        <v>1986</v>
-      </c>
-      <c r="Q66" s="24" t="s">
-        <v>2013</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="31"/>
@@ -20265,49 +20309,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="75" t="s">
         <v>1704</v>
       </c>
-      <c r="E69" s="72" t="s">
+      <c r="E69" s="75" t="s">
         <v>1705</v>
       </c>
-      <c r="F69" s="72" t="s">
+      <c r="F69" s="75" t="s">
         <v>1706</v>
       </c>
-      <c r="G69" s="72" t="s">
+      <c r="G69" s="75" t="s">
         <v>1707</v>
       </c>
-      <c r="H69" s="72" t="s">
+      <c r="H69" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="I69" s="72" t="s">
+      <c r="I69" s="75" t="s">
         <v>1708</v>
       </c>
-      <c r="J69" s="72" t="s">
+      <c r="J69" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="K69" s="72" t="s">
+      <c r="K69" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="L69" s="72" t="s">
+      <c r="L69" s="75" t="s">
         <v>1694</v>
       </c>
-      <c r="M69" s="72" t="s">
+      <c r="M69" s="75" t="s">
         <v>1709</v>
       </c>
-      <c r="N69" s="72" t="s">
+      <c r="N69" s="75" t="s">
         <v>1710</v>
       </c>
-      <c r="O69" s="72" t="s">
+      <c r="O69" s="75" t="s">
         <v>1711</v>
       </c>
-      <c r="P69" s="72" t="s">
+      <c r="P69" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="Q69" s="72" t="s">
+      <c r="Q69" s="75" t="s">
         <v>1712</v>
       </c>
-      <c r="R69" s="72" t="s">
+      <c r="R69" s="75" t="s">
         <v>1713</v>
       </c>
       <c r="S69" s="21"/>
@@ -20316,45 +20360,45 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
       <c r="D70" s="24" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="J70" s="24"/>
       <c r="K70" s="24" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="M70" s="24" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="P70" s="24"/>
       <c r="Q70" s="24" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="R70" s="24" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="S70" s="31"/>
       <c r="V70" s="63"/>
@@ -20375,7 +20419,7 @@
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
@@ -20383,7 +20427,7 @@
       <c r="N71" s="54"/>
       <c r="O71" s="54"/>
       <c r="P71" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="Q71" s="54" t="s">
         <v>884</v>
@@ -20410,7 +20454,7 @@
         <v>1860</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="K72" s="18" t="s">
         <v>1839</v>
@@ -20423,10 +20467,10 @@
         <v>1862</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="Q72" s="18" t="s">
         <v>884</v>
@@ -20440,49 +20484,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="72" t="s">
+      <c r="D73" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="E73" s="72" t="s">
+      <c r="E73" s="75" t="s">
         <v>1715</v>
       </c>
-      <c r="F73" s="72" t="s">
+      <c r="F73" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="G73" s="72" t="s">
+      <c r="G73" s="75" t="s">
         <v>1716</v>
       </c>
-      <c r="H73" s="72" t="s">
+      <c r="H73" s="75" t="s">
         <v>1644</v>
       </c>
-      <c r="I73" s="72" t="s">
+      <c r="I73" s="75" t="s">
         <v>1717</v>
       </c>
-      <c r="J73" s="72" t="s">
+      <c r="J73" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="K73" s="72" t="s">
+      <c r="K73" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="L73" s="72" t="s">
+      <c r="L73" s="75" t="s">
         <v>1718</v>
       </c>
-      <c r="M73" s="72" t="s">
+      <c r="M73" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="N73" s="72" t="s">
+      <c r="N73" s="75" t="s">
         <v>1719</v>
       </c>
-      <c r="O73" s="72" t="s">
+      <c r="O73" s="75" t="s">
         <v>1720</v>
       </c>
-      <c r="P73" s="72" t="s">
+      <c r="P73" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="Q73" s="72" t="s">
+      <c r="Q73" s="75" t="s">
         <v>1721</v>
       </c>
-      <c r="R73" s="72" t="s">
+      <c r="R73" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S73" s="21"/>
@@ -20491,42 +20535,42 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="P74" s="24" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="Q74" s="24" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="R74" s="24"/>
       <c r="S74" s="31"/>
@@ -20543,7 +20587,7 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="J75" s="54" t="s">
         <v>1864</v>
@@ -20613,49 +20657,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="72" t="s">
+      <c r="D77" s="75" t="s">
         <v>1722</v>
       </c>
-      <c r="E77" s="72" t="s">
+      <c r="E77" s="75" t="s">
         <v>1723</v>
       </c>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="75" t="s">
         <v>1724</v>
       </c>
-      <c r="G77" s="72" t="s">
+      <c r="G77" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H77" s="72" t="s">
+      <c r="H77" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I77" s="72" t="s">
+      <c r="I77" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="J77" s="72" t="s">
+      <c r="J77" s="75" t="s">
         <v>1725</v>
       </c>
-      <c r="K77" s="72" t="s">
+      <c r="K77" s="75" t="s">
         <v>1726</v>
       </c>
-      <c r="L77" s="72" t="s">
+      <c r="L77" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="M77" s="72" t="s">
+      <c r="M77" s="75" t="s">
         <v>1727</v>
       </c>
-      <c r="N77" s="72" t="s">
+      <c r="N77" s="75" t="s">
         <v>1612</v>
       </c>
-      <c r="O77" s="72" t="s">
+      <c r="O77" s="75" t="s">
         <v>1626</v>
       </c>
-      <c r="P77" s="72" t="s">
+      <c r="P77" s="75" t="s">
         <v>1728</v>
       </c>
-      <c r="Q77" s="72" t="s">
+      <c r="Q77" s="75" t="s">
         <v>1644</v>
       </c>
-      <c r="R77" s="72" t="s">
+      <c r="R77" s="75" t="s">
         <v>1676</v>
       </c>
       <c r="S77" s="21"/>
@@ -20664,45 +20708,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="24" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="L78" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="Q78" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R78" s="24" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="S78" s="31"/>
       <c r="V78" s="63"/>
@@ -20717,7 +20761,7 @@
       <c r="H79" s="54"/>
       <c r="I79" s="54"/>
       <c r="J79" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="K79" s="54"/>
       <c r="L79" s="54"/>
@@ -20778,49 +20822,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="72" t="s">
+      <c r="D81" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="E81" s="72" t="s">
+      <c r="E81" s="75" t="s">
         <v>1729</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F81" s="75" t="s">
         <v>1730</v>
       </c>
-      <c r="G81" s="72" t="s">
+      <c r="G81" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="H81" s="72" t="s">
+      <c r="H81" s="75" t="s">
         <v>1659</v>
       </c>
-      <c r="I81" s="72" t="s">
+      <c r="I81" s="75" t="s">
         <v>1731</v>
       </c>
-      <c r="J81" s="72" t="s">
+      <c r="J81" s="75" t="s">
         <v>1606</v>
       </c>
-      <c r="K81" s="72" t="s">
+      <c r="K81" s="75" t="s">
         <v>1732</v>
       </c>
-      <c r="L81" s="72" t="s">
+      <c r="L81" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="M81" s="72" t="s">
+      <c r="M81" s="75" t="s">
         <v>1733</v>
       </c>
-      <c r="N81" s="72" t="s">
+      <c r="N81" s="75" t="s">
         <v>1734</v>
       </c>
-      <c r="O81" s="72" t="s">
+      <c r="O81" s="75" t="s">
         <v>1735</v>
       </c>
-      <c r="P81" s="72" t="s">
+      <c r="P81" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="Q81" s="72" t="s">
+      <c r="Q81" s="75" t="s">
         <v>1736</v>
       </c>
-      <c r="R81" s="72" t="s">
+      <c r="R81" s="75" t="s">
         <v>1608</v>
       </c>
       <c r="S81" s="21"/>
@@ -20832,39 +20876,39 @@
         <v>1918</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="24" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="P82" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R82" s="24"/>
       <c r="S82" s="31"/>
@@ -20892,7 +20936,7 @@
       <c r="N83" s="54"/>
       <c r="O83" s="54"/>
       <c r="P83" s="54" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="Q83" s="54" t="s">
         <v>653</v>
@@ -20919,7 +20963,7 @@
         <v>1835</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>1502</v>
+        <v>1833</v>
       </c>
       <c r="K84" s="18" t="s">
         <v>601</v>
@@ -20932,10 +20976,10 @@
         <v>597</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="Q84" s="18" t="s">
         <v>653</v>
@@ -20949,49 +20993,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="75" t="s">
         <v>1737</v>
       </c>
-      <c r="E85" s="72" t="s">
+      <c r="E85" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="F85" s="72" t="s">
+      <c r="F85" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="75" t="s">
         <v>1717</v>
       </c>
-      <c r="H85" s="72" t="s">
+      <c r="H85" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="I85" s="72" t="s">
+      <c r="I85" s="75" t="s">
         <v>1672</v>
       </c>
-      <c r="J85" s="72" t="s">
+      <c r="J85" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="K85" s="72" t="s">
+      <c r="K85" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="L85" s="72" t="s">
+      <c r="L85" s="75" t="s">
         <v>1738</v>
       </c>
-      <c r="M85" s="72" t="s">
+      <c r="M85" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="N85" s="72" t="s">
+      <c r="N85" s="75" t="s">
         <v>1739</v>
       </c>
-      <c r="O85" s="72" t="s">
+      <c r="O85" s="75" t="s">
         <v>1638</v>
       </c>
-      <c r="P85" s="72" t="s">
+      <c r="P85" s="75" t="s">
         <v>1740</v>
       </c>
-      <c r="Q85" s="72" t="s">
+      <c r="Q85" s="75" t="s">
         <v>1741</v>
       </c>
-      <c r="R85" s="72" t="s">
+      <c r="R85" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S85" s="21"/>
@@ -21000,42 +21044,42 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="24" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="E86" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="K86" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="P86" s="24" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="Q86" s="24" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="R86" s="24"/>
       <c r="S86" s="31"/>
@@ -21048,11 +21092,11 @@
         <v>814</v>
       </c>
       <c r="E87" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="F87" s="54"/>
       <c r="G87" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
@@ -21120,49 +21164,49 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="72" t="s">
+      <c r="D89" s="75" t="s">
         <v>1742</v>
       </c>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="F89" s="72" t="s">
+      <c r="F89" s="75" t="s">
         <v>1743</v>
       </c>
-      <c r="G89" s="72" t="s">
+      <c r="G89" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="H89" s="72" t="s">
+      <c r="H89" s="75" t="s">
         <v>1637</v>
       </c>
-      <c r="I89" s="72" t="s">
+      <c r="I89" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="J89" s="72" t="s">
+      <c r="J89" s="75" t="s">
         <v>1744</v>
       </c>
-      <c r="K89" s="72" t="s">
+      <c r="K89" s="75" t="s">
         <v>1680</v>
       </c>
-      <c r="L89" s="72" t="s">
+      <c r="L89" s="75" t="s">
         <v>1626</v>
       </c>
-      <c r="M89" s="72" t="s">
+      <c r="M89" s="75" t="s">
         <v>1745</v>
       </c>
-      <c r="N89" s="72" t="s">
+      <c r="N89" s="75" t="s">
         <v>1746</v>
       </c>
-      <c r="O89" s="72" t="s">
+      <c r="O89" s="75" t="s">
         <v>1747</v>
       </c>
-      <c r="P89" s="72" t="s">
+      <c r="P89" s="75" t="s">
         <v>1731</v>
       </c>
-      <c r="Q89" s="72" t="s">
+      <c r="Q89" s="75" t="s">
         <v>1748</v>
       </c>
-      <c r="R89" s="72" t="s">
+      <c r="R89" s="75" t="s">
         <v>1588</v>
       </c>
       <c r="S89" s="21"/>
@@ -21171,44 +21215,44 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="24" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="N90" s="24" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="Q90" s="24" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="R90" s="24"/>
       <c r="S90" s="31"/>
@@ -21220,13 +21264,13 @@
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
       <c r="F91" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
       <c r="J91" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
@@ -21236,10 +21280,10 @@
         <v>722</v>
       </c>
       <c r="P91" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="Q91" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="R91" s="54"/>
       <c r="V91" s="36"/>
@@ -21253,7 +21297,7 @@
         <v>567</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>1877</v>
@@ -21271,7 +21315,7 @@
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="O92" s="18" t="s">
         <v>722</v>
@@ -21293,49 +21337,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="72" t="s">
+      <c r="D93" s="75" t="s">
         <v>1749</v>
       </c>
-      <c r="E93" s="72" t="s">
+      <c r="E93" s="75" t="s">
         <v>1750</v>
       </c>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="G93" s="72" t="s">
+      <c r="G93" s="75" t="s">
         <v>1751</v>
       </c>
-      <c r="H93" s="72" t="s">
+      <c r="H93" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="I93" s="72" t="s">
+      <c r="I93" s="75" t="s">
         <v>1752</v>
       </c>
-      <c r="J93" s="72" t="s">
+      <c r="J93" s="75" t="s">
         <v>1689</v>
       </c>
-      <c r="K93" s="72" t="s">
+      <c r="K93" s="75" t="s">
         <v>1753</v>
       </c>
-      <c r="L93" s="72" t="s">
+      <c r="L93" s="75" t="s">
         <v>1754</v>
       </c>
-      <c r="M93" s="72" t="s">
+      <c r="M93" s="75" t="s">
         <v>1755</v>
       </c>
-      <c r="N93" s="72" t="s">
+      <c r="N93" s="75" t="s">
         <v>1756</v>
       </c>
-      <c r="O93" s="72" t="s">
+      <c r="O93" s="75" t="s">
         <v>1757</v>
       </c>
-      <c r="P93" s="72" t="s">
+      <c r="P93" s="75" t="s">
         <v>1654</v>
       </c>
-      <c r="Q93" s="72" t="s">
+      <c r="Q93" s="75" t="s">
         <v>1671</v>
       </c>
-      <c r="R93" s="72" t="s">
+      <c r="R93" s="75" t="s">
         <v>1736</v>
       </c>
       <c r="S93" s="21"/>
@@ -21344,43 +21388,43 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="24" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="Q94" s="24" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="R94" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="S94" s="31"/>
       <c r="V94" s="7"/>
@@ -21392,7 +21436,7 @@
       <c r="E95" s="54"/>
       <c r="F95" s="54"/>
       <c r="G95" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="H95" s="54" t="s">
         <v>1880</v>
@@ -21442,28 +21486,28 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="72" t="s">
+      <c r="D97" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="E97" s="72" t="s">
+      <c r="E97" s="75" t="s">
         <v>1758</v>
       </c>
-      <c r="F97" s="72" t="s">
+      <c r="F97" s="75" t="s">
         <v>1759</v>
       </c>
-      <c r="G97" s="72" t="s">
+      <c r="G97" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="H97" s="72" t="s">
+      <c r="H97" s="75" t="s">
         <v>1760</v>
       </c>
-      <c r="I97" s="72" t="s">
+      <c r="I97" s="75" t="s">
         <v>1761</v>
       </c>
-      <c r="J97" s="72" t="s">
+      <c r="J97" s="75" t="s">
         <v>1762</v>
       </c>
-      <c r="K97" s="72" t="str">
+      <c r="K97" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21483,16 +21527,16 @@
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
@@ -21551,7 +21595,7 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="72" t="str">
+      <c r="D101" s="75" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21600,7 +21644,7 @@
       <c r="E103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -21612,7 +21656,7 @@
       </c>
       <c r="N103" s="54"/>
       <c r="O103" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="P103" s="54"/>
       <c r="Q103" s="54"/>
@@ -21656,7 +21700,7 @@
         <v>617</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="Q104" s="18"/>
       <c r="R104" s="18" t="s">
@@ -21670,49 +21714,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="72" t="s">
+      <c r="D105" s="75" t="s">
         <v>1763</v>
       </c>
-      <c r="E105" s="72" t="s">
+      <c r="E105" s="75" t="s">
         <v>1764</v>
       </c>
-      <c r="F105" s="72" t="s">
+      <c r="F105" s="75" t="s">
         <v>1765</v>
       </c>
-      <c r="G105" s="72" t="s">
+      <c r="G105" s="75" t="s">
         <v>1689</v>
       </c>
-      <c r="H105" s="72" t="s">
+      <c r="H105" s="75" t="s">
         <v>1744</v>
       </c>
-      <c r="I105" s="72" t="s">
+      <c r="I105" s="75" t="s">
         <v>1733</v>
       </c>
-      <c r="J105" s="72" t="s">
+      <c r="J105" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="K105" s="72" t="s">
+      <c r="K105" s="75" t="s">
         <v>1766</v>
       </c>
-      <c r="L105" s="72" t="s">
+      <c r="L105" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="M105" s="72" t="s">
+      <c r="M105" s="75" t="s">
         <v>1767</v>
       </c>
-      <c r="N105" s="72" t="s">
+      <c r="N105" s="75" t="s">
         <v>1768</v>
       </c>
-      <c r="O105" s="72" t="s">
+      <c r="O105" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="P105" s="72" t="s">
+      <c r="P105" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="Q105" s="72" t="s">
+      <c r="Q105" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="R105" s="72" t="s">
+      <c r="R105" s="75" t="s">
         <v>1770</v>
       </c>
       <c r="S105" s="21"/>
@@ -21721,45 +21765,45 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="24" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="J106" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="L106" s="24"/>
       <c r="M106" s="24" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="N106" s="24" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="Q106" s="24"/>
       <c r="R106" s="24" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="S106" s="31"/>
       <c r="V106" s="7"/>
@@ -21769,7 +21813,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="54"/>
       <c r="E107" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
@@ -21777,12 +21821,14 @@
       <c r="I107" s="54"/>
       <c r="J107" s="54"/>
       <c r="K107" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="L107" s="54"/>
       <c r="M107" s="54"/>
       <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
+      <c r="O107" s="74" t="s">
+        <v>2278</v>
+      </c>
       <c r="P107" s="54"/>
       <c r="Q107" s="54"/>
       <c r="R107" s="54"/>
@@ -21821,8 +21867,8 @@
       <c r="N108" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="O108" s="18" t="s">
-        <v>852</v>
+      <c r="O108" s="69" t="s">
+        <v>2277</v>
       </c>
       <c r="P108" s="18" t="s">
         <v>762</v>
@@ -21839,49 +21885,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="72" t="s">
+      <c r="D109" s="75" t="s">
         <v>1771</v>
       </c>
-      <c r="E109" s="72" t="s">
+      <c r="E109" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="F109" s="72" t="s">
+      <c r="F109" s="75" t="s">
         <v>1772</v>
       </c>
-      <c r="G109" s="72" t="s">
+      <c r="G109" s="75" t="s">
         <v>1773</v>
       </c>
-      <c r="H109" s="72" t="s">
+      <c r="H109" s="75" t="s">
         <v>1774</v>
       </c>
-      <c r="I109" s="72" t="s">
+      <c r="I109" s="75" t="s">
         <v>1775</v>
       </c>
-      <c r="J109" s="72" t="s">
+      <c r="J109" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="K109" s="72" t="s">
+      <c r="K109" s="75" t="s">
         <v>1714</v>
       </c>
-      <c r="L109" s="72" t="s">
+      <c r="L109" s="75" t="s">
         <v>1743</v>
       </c>
-      <c r="M109" s="72" t="s">
+      <c r="M109" s="75" t="s">
         <v>1776</v>
       </c>
-      <c r="N109" s="72" t="s">
+      <c r="N109" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="O109" s="72" t="s">
+      <c r="O109" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="P109" s="72" t="s">
+      <c r="P109" s="75" t="s">
         <v>1680</v>
       </c>
-      <c r="Q109" s="72" t="s">
+      <c r="Q109" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="R109" s="72" t="s">
+      <c r="R109" s="75" t="s">
         <v>1777</v>
       </c>
       <c r="S109" s="21"/>
@@ -21890,45 +21936,45 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="24" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="J110" s="24"/>
       <c r="K110" s="24" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="N110" s="24" t="s">
         <v>1918</v>
       </c>
-      <c r="O110" s="24" t="s">
-        <v>1921</v>
+      <c r="O110" s="70" t="s">
+        <v>2297</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="Q110" s="24"/>
       <c r="R110" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="S110" s="31"/>
       <c r="V110" s="7"/>
@@ -21937,14 +21983,14 @@
       <c r="B111" s="12"/>
       <c r="C111" s="34"/>
       <c r="D111" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="E111" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="F111" s="54"/>
       <c r="G111" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
@@ -21974,13 +22020,13 @@
         <v>617</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>722</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>1887</v>
@@ -21999,7 +22045,7 @@
         <v>1819</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="P112" s="18" t="s">
         <v>858</v>
@@ -22016,49 +22062,49 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="72" t="s">
+      <c r="D113" s="75" t="s">
         <v>1725</v>
       </c>
-      <c r="E113" s="72" t="s">
+      <c r="E113" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="F113" s="72" t="s">
+      <c r="F113" s="75" t="s">
         <v>1756</v>
       </c>
-      <c r="G113" s="72" t="s">
+      <c r="G113" s="75" t="s">
         <v>1757</v>
       </c>
-      <c r="H113" s="72" t="s">
+      <c r="H113" s="75" t="s">
         <v>1638</v>
       </c>
-      <c r="I113" s="72" t="s">
+      <c r="I113" s="75" t="s">
         <v>1778</v>
       </c>
-      <c r="J113" s="72" t="s">
+      <c r="J113" s="75" t="s">
         <v>1779</v>
       </c>
-      <c r="K113" s="72" t="s">
+      <c r="K113" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="L113" s="72" t="s">
+      <c r="L113" s="75" t="s">
         <v>1780</v>
       </c>
-      <c r="M113" s="72" t="s">
+      <c r="M113" s="75" t="s">
         <v>1781</v>
       </c>
-      <c r="N113" s="72" t="s">
+      <c r="N113" s="75" t="s">
         <v>1782</v>
       </c>
-      <c r="O113" s="72" t="s">
+      <c r="O113" s="75" t="s">
         <v>1638</v>
       </c>
-      <c r="P113" s="72" t="s">
+      <c r="P113" s="75" t="s">
         <v>1783</v>
       </c>
-      <c r="Q113" s="72" t="s">
+      <c r="Q113" s="75" t="s">
         <v>1784</v>
       </c>
-      <c r="R113" s="72" t="s">
+      <c r="R113" s="75" t="s">
         <v>1608</v>
       </c>
       <c r="S113" s="21"/>
@@ -22067,44 +22113,44 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="24" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="24" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="M114" s="24" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="N114" s="24" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="O114" s="24" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="Q114" s="24" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="R114" s="24"/>
       <c r="S114" s="31"/>
@@ -22121,7 +22167,7 @@
       </c>
       <c r="H115" s="54"/>
       <c r="I115" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="J115" s="54" t="s">
         <v>814</v>
@@ -22135,7 +22181,7 @@
       <c r="O115" s="54"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="54" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="R115" s="54"/>
       <c r="V115" s="36"/>
@@ -22143,7 +22189,7 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
       <c r="D116" s="18" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>601</v>
@@ -22178,7 +22224,7 @@
         <v>780</v>
       </c>
       <c r="Q116" s="18" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="R116" s="18"/>
       <c r="S116" s="19"/>
@@ -22240,7 +22286,7 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="24" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>1918</v>
@@ -22249,17 +22295,17 @@
         <v>1908</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="24" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="L118" s="24" t="s">
         <v>1918</v>
@@ -22268,14 +22314,14 @@
         <v>1908</v>
       </c>
       <c r="N118" s="24" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O118" s="24"/>
       <c r="P118" s="24" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="Q118" s="24" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="R118" s="24"/>
       <c r="S118" s="31"/>
@@ -22289,7 +22335,7 @@
       <c r="F119" s="54"/>
       <c r="G119" s="54"/>
       <c r="H119" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="I119" s="54"/>
       <c r="J119" s="54"/>
@@ -22299,11 +22345,11 @@
       <c r="N119" s="54"/>
       <c r="O119" s="54"/>
       <c r="P119" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="Q119" s="54"/>
       <c r="R119" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="V119" s="36"/>
     </row>
@@ -22358,49 +22404,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="72" t="s">
+      <c r="D121" s="75" t="s">
         <v>1788</v>
       </c>
-      <c r="E121" s="72" t="s">
+      <c r="E121" s="75" t="s">
         <v>1642</v>
       </c>
-      <c r="F121" s="72" t="s">
+      <c r="F121" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="G121" s="72" t="s">
+      <c r="G121" s="75" t="s">
         <v>1789</v>
       </c>
-      <c r="H121" s="72" t="s">
+      <c r="H121" s="75" t="s">
         <v>1689</v>
       </c>
-      <c r="I121" s="72" t="s">
+      <c r="I121" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="J121" s="72" t="s">
+      <c r="J121" s="75" t="s">
         <v>1790</v>
       </c>
-      <c r="K121" s="72" t="s">
+      <c r="K121" s="75" t="s">
         <v>1644</v>
       </c>
-      <c r="L121" s="72" t="s">
+      <c r="L121" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="M121" s="72" t="s">
+      <c r="M121" s="75" t="s">
         <v>1791</v>
       </c>
-      <c r="N121" s="72" t="s">
+      <c r="N121" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="O121" s="72" t="s">
+      <c r="O121" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="P121" s="72" t="s">
+      <c r="P121" s="75" t="s">
         <v>1692</v>
       </c>
-      <c r="Q121" s="72" t="s">
+      <c r="Q121" s="75" t="s">
         <v>1711</v>
       </c>
-      <c r="R121" s="72" t="s">
+      <c r="R121" s="75" t="s">
         <v>1606</v>
       </c>
       <c r="S121" s="21"/>
@@ -22409,45 +22455,45 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="22"/>
       <c r="D122" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="I122" s="24"/>
       <c r="J122" s="24" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="M122" s="24" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="N122" s="24"/>
       <c r="O122" s="24" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="Q122" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="R122" s="24" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
@@ -22465,10 +22511,10 @@
       <c r="K123" s="54"/>
       <c r="L123" s="54"/>
       <c r="M123" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="N123" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="O123" s="54"/>
       <c r="P123" s="54"/>
@@ -22505,11 +22551,11 @@
         <v>617</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="O124" s="18"/>
       <c r="P124" s="18" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="Q124" s="18" t="s">
         <v>601</v>
@@ -22525,49 +22571,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="72" t="s">
+      <c r="D125" s="75" t="s">
         <v>1792</v>
       </c>
-      <c r="E125" s="72" t="s">
+      <c r="E125" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="F125" s="72" t="s">
+      <c r="F125" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="G125" s="72" t="s">
+      <c r="G125" s="75" t="s">
         <v>1637</v>
       </c>
-      <c r="H125" s="72" t="s">
+      <c r="H125" s="75" t="s">
         <v>1744</v>
       </c>
-      <c r="I125" s="72" t="s">
+      <c r="I125" s="75" t="s">
         <v>1680</v>
       </c>
-      <c r="J125" s="72" t="s">
+      <c r="J125" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="K125" s="72" t="s">
+      <c r="K125" s="75" t="s">
         <v>1644</v>
       </c>
-      <c r="L125" s="72" t="s">
+      <c r="L125" s="75" t="s">
         <v>1793</v>
       </c>
-      <c r="M125" s="72" t="s">
+      <c r="M125" s="75" t="s">
         <v>1652</v>
       </c>
-      <c r="N125" s="72" t="s">
+      <c r="N125" s="75" t="s">
         <v>1607</v>
       </c>
-      <c r="O125" s="72" t="s">
+      <c r="O125" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="P125" s="72" t="s">
+      <c r="P125" s="75" t="s">
         <v>1785</v>
       </c>
-      <c r="Q125" s="72" t="s">
+      <c r="Q125" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="R125" s="72" t="s">
+      <c r="R125" s="75" t="s">
         <v>1764</v>
       </c>
       <c r="S125" s="21"/>
@@ -22576,43 +22622,43 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="24" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>2045</v>
+      </c>
+      <c r="I126" s="24" t="s">
         <v>1986</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H126" s="24" t="s">
-        <v>2049</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>1990</v>
       </c>
       <c r="J126" s="24"/>
       <c r="K126" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="M126" s="24" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="N126" s="24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="Q126" s="24" t="s">
         <v>1918</v>
       </c>
       <c r="R126" s="24" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -22623,17 +22669,17 @@
       <c r="D127" s="54"/>
       <c r="E127" s="54"/>
       <c r="F127" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="G127" s="54" t="s">
         <v>1866</v>
       </c>
       <c r="H127" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="I127" s="54"/>
       <c r="J127" s="54" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="K127" s="54" t="s">
         <v>754</v>
@@ -22666,7 +22712,7 @@
         <v>776</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="K128" s="18" t="s">
         <v>754</v>
@@ -22688,37 +22734,37 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="72" t="s">
+      <c r="D129" s="75" t="s">
         <v>1794</v>
       </c>
-      <c r="E129" s="72" t="s">
+      <c r="E129" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="F129" s="72" t="s">
+      <c r="F129" s="75" t="s">
         <v>1654</v>
       </c>
-      <c r="G129" s="72" t="s">
+      <c r="G129" s="75" t="s">
         <v>1727</v>
       </c>
-      <c r="H129" s="72" t="s">
+      <c r="H129" s="75" t="s">
         <v>1619</v>
       </c>
-      <c r="I129" s="72" t="s">
+      <c r="I129" s="75" t="s">
         <v>1733</v>
       </c>
-      <c r="J129" s="72" t="s">
+      <c r="J129" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="K129" s="72" t="s">
+      <c r="K129" s="75" t="s">
         <v>1795</v>
       </c>
-      <c r="L129" s="72" t="s">
+      <c r="L129" s="75" t="s">
         <v>1773</v>
       </c>
-      <c r="M129" s="72" t="s">
+      <c r="M129" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="N129" s="72" t="s">
+      <c r="N129" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O129" s="41"/>
@@ -22731,29 +22777,29 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="22"/>
       <c r="D130" s="24" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="24" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="J130" s="24" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="M130" s="24"/>
       <c r="N130" s="24"/>
@@ -29758,410 +29804,418 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="251" priority="97">
+    <cfRule type="expression" dxfId="255" priority="99">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="98">
+    <cfRule type="expression" dxfId="254" priority="100">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="249" priority="57">
+    <cfRule type="expression" dxfId="253" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="58">
+    <cfRule type="expression" dxfId="252" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="247" priority="55">
+    <cfRule type="expression" dxfId="251" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="56">
+    <cfRule type="expression" dxfId="250" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="245" priority="53">
+    <cfRule type="expression" dxfId="249" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="54">
+    <cfRule type="expression" dxfId="248" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="243" priority="51">
+    <cfRule type="expression" dxfId="247" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="52">
+    <cfRule type="expression" dxfId="246" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="241" priority="49">
+    <cfRule type="expression" dxfId="245" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="50">
+    <cfRule type="expression" dxfId="244" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="239" priority="47">
+    <cfRule type="expression" dxfId="243" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="48">
+    <cfRule type="expression" dxfId="242" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="237" priority="45">
+    <cfRule type="expression" dxfId="241" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="46">
+    <cfRule type="expression" dxfId="240" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="235" priority="43">
+    <cfRule type="expression" dxfId="239" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="44">
+    <cfRule type="expression" dxfId="238" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="233" priority="41">
+    <cfRule type="expression" dxfId="237" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="42">
+    <cfRule type="expression" dxfId="236" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="231" priority="39">
+    <cfRule type="expression" dxfId="235" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="40">
+    <cfRule type="expression" dxfId="234" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="229" priority="37">
+    <cfRule type="expression" dxfId="233" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="38">
+    <cfRule type="expression" dxfId="232" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="227" priority="35">
+    <cfRule type="expression" dxfId="231" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="36">
+    <cfRule type="expression" dxfId="230" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="225" priority="33">
+    <cfRule type="expression" dxfId="229" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="34">
+    <cfRule type="expression" dxfId="228" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="223" priority="31">
+    <cfRule type="expression" dxfId="227" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="32">
+    <cfRule type="expression" dxfId="226" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="221" priority="29">
+    <cfRule type="expression" dxfId="225" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="30">
+    <cfRule type="expression" dxfId="224" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="219" priority="27">
+    <cfRule type="expression" dxfId="223" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="28">
+    <cfRule type="expression" dxfId="222" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="217" priority="25">
+    <cfRule type="expression" dxfId="221" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="26">
+    <cfRule type="expression" dxfId="220" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="215" priority="23">
+    <cfRule type="expression" dxfId="219" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="24">
+    <cfRule type="expression" dxfId="218" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="213" priority="21">
+    <cfRule type="expression" dxfId="217" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="22">
+    <cfRule type="expression" dxfId="216" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="215" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="20">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="209" priority="17">
+    <cfRule type="expression" dxfId="213" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="18">
+    <cfRule type="expression" dxfId="212" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="207" priority="15">
+    <cfRule type="expression" dxfId="211" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="16">
+    <cfRule type="expression" dxfId="210" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="205" priority="13">
+    <cfRule type="expression" dxfId="209" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="14">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="203" priority="11">
+    <cfRule type="expression" dxfId="207" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="12">
+    <cfRule type="expression" dxfId="206" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="201" priority="9">
+  <conditionalFormatting sqref="D107:N107 P107:R107">
+    <cfRule type="expression" dxfId="205" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="10">
+    <cfRule type="expression" dxfId="204" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="199" priority="7">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="8">
+    <cfRule type="expression" dxfId="202" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="197" priority="5">
+    <cfRule type="expression" dxfId="201" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="6">
+    <cfRule type="expression" dxfId="200" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="195" priority="3">
+    <cfRule type="expression" dxfId="199" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="4">
+    <cfRule type="expression" dxfId="198" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123">
-    <cfRule type="expression" dxfId="193" priority="1">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="2">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127:R127 D3:R3 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="191" priority="143">
+    <cfRule type="expression" dxfId="195" priority="145">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="144">
+    <cfRule type="expression" dxfId="194" priority="146">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="189" priority="141">
+    <cfRule type="expression" dxfId="193" priority="143">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="142">
+    <cfRule type="expression" dxfId="192" priority="144">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="187" priority="139">
+    <cfRule type="expression" dxfId="191" priority="141">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="140">
+    <cfRule type="expression" dxfId="190" priority="142">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="185" priority="137">
+    <cfRule type="expression" dxfId="189" priority="139">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="138">
+    <cfRule type="expression" dxfId="188" priority="140">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="183" priority="93">
+    <cfRule type="expression" dxfId="187" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="94">
+    <cfRule type="expression" dxfId="186" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="181" priority="91">
+    <cfRule type="expression" dxfId="185" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="92">
+    <cfRule type="expression" dxfId="184" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="179" priority="89">
+    <cfRule type="expression" dxfId="183" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="90">
+    <cfRule type="expression" dxfId="182" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="177" priority="87">
+    <cfRule type="expression" dxfId="181" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="88">
+    <cfRule type="expression" dxfId="180" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="175" priority="85">
+    <cfRule type="expression" dxfId="179" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="86">
+    <cfRule type="expression" dxfId="178" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="173" priority="83">
+    <cfRule type="expression" dxfId="177" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="84">
+    <cfRule type="expression" dxfId="176" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="171" priority="81">
+    <cfRule type="expression" dxfId="175" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="82">
+    <cfRule type="expression" dxfId="174" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="169" priority="79">
+    <cfRule type="expression" dxfId="173" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="80">
+    <cfRule type="expression" dxfId="172" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="167" priority="77">
+    <cfRule type="expression" dxfId="171" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="78">
+    <cfRule type="expression" dxfId="170" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="165" priority="75">
+    <cfRule type="expression" dxfId="169" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="76">
+    <cfRule type="expression" dxfId="168" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="163" priority="73">
+    <cfRule type="expression" dxfId="167" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="74">
+    <cfRule type="expression" dxfId="166" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="161" priority="71">
+    <cfRule type="expression" dxfId="165" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="72">
+    <cfRule type="expression" dxfId="164" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="159" priority="69">
+    <cfRule type="expression" dxfId="163" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="70">
+    <cfRule type="expression" dxfId="162" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="157" priority="67">
+    <cfRule type="expression" dxfId="161" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="68">
+    <cfRule type="expression" dxfId="160" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="155" priority="63">
+    <cfRule type="expression" dxfId="159" priority="65">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="64">
+    <cfRule type="expression" dxfId="158" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="153" priority="61">
+    <cfRule type="expression" dxfId="157" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="62">
+    <cfRule type="expression" dxfId="156" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="151" priority="59">
+    <cfRule type="expression" dxfId="155" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="60">
+    <cfRule type="expression" dxfId="154" priority="62">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O107">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40679,410 +40733,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="93">
+    <cfRule type="expression" dxfId="153" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94">
+    <cfRule type="expression" dxfId="152" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="57">
+    <cfRule type="expression" dxfId="151" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="58">
+    <cfRule type="expression" dxfId="150" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="145" priority="55">
+    <cfRule type="expression" dxfId="149" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="56">
+    <cfRule type="expression" dxfId="148" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="53">
+    <cfRule type="expression" dxfId="147" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="54">
+    <cfRule type="expression" dxfId="146" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="141" priority="51">
+    <cfRule type="expression" dxfId="145" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="52">
+    <cfRule type="expression" dxfId="144" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="139" priority="49">
+    <cfRule type="expression" dxfId="143" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="50">
+    <cfRule type="expression" dxfId="142" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="137" priority="47">
+    <cfRule type="expression" dxfId="141" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48">
+    <cfRule type="expression" dxfId="140" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="45">
+    <cfRule type="expression" dxfId="139" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="46">
+    <cfRule type="expression" dxfId="138" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="43">
+    <cfRule type="expression" dxfId="137" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="44">
+    <cfRule type="expression" dxfId="136" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="41">
+    <cfRule type="expression" dxfId="135" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42">
+    <cfRule type="expression" dxfId="134" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="39">
+    <cfRule type="expression" dxfId="133" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="40">
+    <cfRule type="expression" dxfId="132" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="127" priority="37">
+    <cfRule type="expression" dxfId="131" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="38">
+    <cfRule type="expression" dxfId="130" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="125" priority="35">
+    <cfRule type="expression" dxfId="129" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="36">
+    <cfRule type="expression" dxfId="128" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="123" priority="33">
+    <cfRule type="expression" dxfId="127" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="34">
+    <cfRule type="expression" dxfId="126" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="121" priority="31">
+    <cfRule type="expression" dxfId="125" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="32">
+    <cfRule type="expression" dxfId="124" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="29">
+    <cfRule type="expression" dxfId="123" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="30">
+    <cfRule type="expression" dxfId="122" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="117" priority="27">
+    <cfRule type="expression" dxfId="121" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="28">
+    <cfRule type="expression" dxfId="120" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="115" priority="25">
+    <cfRule type="expression" dxfId="119" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="26">
+    <cfRule type="expression" dxfId="118" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="117" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
+    <cfRule type="expression" dxfId="116" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="21">
+    <cfRule type="expression" dxfId="115" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="22">
+    <cfRule type="expression" dxfId="114" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="109" priority="19">
+    <cfRule type="expression" dxfId="113" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="20">
+    <cfRule type="expression" dxfId="112" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="107" priority="17">
+    <cfRule type="expression" dxfId="111" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="18">
+    <cfRule type="expression" dxfId="110" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="105" priority="15">
+    <cfRule type="expression" dxfId="109" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="16">
+    <cfRule type="expression" dxfId="108" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="107" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="14">
+    <cfRule type="expression" dxfId="106" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="101" priority="11">
+    <cfRule type="expression" dxfId="105" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="12">
+    <cfRule type="expression" dxfId="104" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="9">
+    <cfRule type="expression" dxfId="103" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="10">
+    <cfRule type="expression" dxfId="102" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="101" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
+    <cfRule type="expression" dxfId="100" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="99" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="93" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="4">
+    <cfRule type="expression" dxfId="96" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="101">
+    <cfRule type="expression" dxfId="93" priority="101">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="102">
+    <cfRule type="expression" dxfId="92" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="99">
+    <cfRule type="expression" dxfId="91" priority="99">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="100">
+    <cfRule type="expression" dxfId="90" priority="100">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="97">
+    <cfRule type="expression" dxfId="89" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="98">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="87" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="96">
+    <cfRule type="expression" dxfId="86" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="85" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
+    <cfRule type="expression" dxfId="84" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="79" priority="89">
+    <cfRule type="expression" dxfId="83" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90">
+    <cfRule type="expression" dxfId="82" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="77" priority="87">
+    <cfRule type="expression" dxfId="81" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="88">
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="75" priority="85">
+    <cfRule type="expression" dxfId="79" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="86">
+    <cfRule type="expression" dxfId="78" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="77" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84">
+    <cfRule type="expression" dxfId="76" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="71" priority="81">
+    <cfRule type="expression" dxfId="75" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82">
+    <cfRule type="expression" dxfId="74" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="73" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="80">
+    <cfRule type="expression" dxfId="72" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="71" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="69" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="76">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="73">
+    <cfRule type="expression" dxfId="67" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="74">
+    <cfRule type="expression" dxfId="66" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="63" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
+    <cfRule type="expression" dxfId="62" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
+    <cfRule type="expression" dxfId="58" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="51" priority="61">
+    <cfRule type="expression" dxfId="55" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48486,194 +48540,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="9" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="8" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="43">
+    <cfRule type="expression" dxfId="7" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="6" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="5" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941754DA-E180-4995-AB5E-4AD8AB88AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DE265C-9F6B-4412-84CC-E5FFCD8DEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36450" yWindow="-75" windowWidth="30855" windowHeight="15585" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="67140" yWindow="5085" windowWidth="15915" windowHeight="20700" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="286" r:id="rId2"/>
     <sheet name="缺字表" sheetId="285" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="292" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="310" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId6"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="2410">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5234,12 +5234,12 @@
     <t>(13, 9)</t>
   </si>
   <si>
-    <t>(17, 14); (37, 11)</t>
-  </si>
-  <si>
     <t>(21, 11); (81, 15); (109, 8); (109, 15)</t>
   </si>
   <si>
+    <t>(21, 14)</t>
+  </si>
+  <si>
     <t>(25, 5)</t>
   </si>
   <si>
@@ -6178,6 +6178,10 @@
   </si>
   <si>
     <t>iu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8089,9 +8093,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(13, 5); (73, 10); (73, 16); (93, 6); (129, 10)</t>
-  </si>
-  <si>
     <t>(13, 7)</t>
   </si>
   <si>
@@ -8268,13 +8269,29 @@
   </si>
   <si>
     <t>(25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (61, 12); (65, 8); (105, 15); (113, 5); (125, 13); (29, 16); (29, 18)</t>
+  </si>
+  <si>
+    <t>tiek4</t>
+  </si>
+  <si>
+    <t>(19, 10)</t>
+  </si>
+  <si>
+    <t>cīng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13, 5); (73, 10); (73, 16); (93, 6); (129, 10); (109, 15)</t>
+  </si>
+  <si>
+    <t>(17, 14); (37, 11); (21, 14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8613,6 +8630,12 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -8735,7 +8758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8943,6 +8966,10 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12460,23 +12487,23 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>1893</v>
+      <c r="C8" s="74" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30">
       <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>1894</v>
+      <c r="C9" s="73" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72" t="b">
+      <c r="C10" s="73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12484,7 +12511,7 @@
       <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="73">
         <v>120</v>
       </c>
     </row>
@@ -12492,7 +12519,7 @@
       <c r="B12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="73">
         <v>15</v>
       </c>
     </row>
@@ -12500,7 +12527,7 @@
       <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="72" t="s">
         <v>1544</v>
       </c>
     </row>
@@ -12508,47 +12535,47 @@
       <c r="B14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>1895</v>
+      <c r="C14" s="72" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
       <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>1896</v>
+      <c r="C15" s="72" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
       <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>1897</v>
+      <c r="C16" s="72" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
       <c r="B17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="71" t="s">
-        <v>1898</v>
+      <c r="C17" s="72" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
       <c r="B18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="71" t="s">
-        <v>1896</v>
+      <c r="C18" s="72" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
       <c r="B19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="72" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -12591,7 +12618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E37C1-FF38-473D-A2AB-4C9788071273}">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12622,7 +12649,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12636,7 +12663,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12658,13 +12685,13 @@
         <v>1354</v>
       </c>
       <c r="B5" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12686,7 +12713,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
@@ -12728,7 +12755,7 @@
         <v>1355</v>
       </c>
       <c r="B10" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -12756,13 +12783,13 @@
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12776,7 +12803,7 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12790,7 +12817,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12804,7 +12831,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12818,7 +12845,7 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12832,7 +12859,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12846,7 +12873,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12868,13 +12895,13 @@
         <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12902,7 +12929,7 @@
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12916,7 +12943,7 @@
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>2345</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12930,7 +12957,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12938,7 +12965,7 @@
         <v>1359</v>
       </c>
       <c r="B25" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
@@ -12972,7 +12999,7 @@
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12986,7 +13013,7 @@
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12994,7 +13021,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
@@ -13014,7 +13041,7 @@
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13028,7 +13055,7 @@
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13042,7 +13069,7 @@
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13056,7 +13083,7 @@
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13084,7 +13111,7 @@
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13112,7 +13139,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13120,13 +13147,13 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13140,7 +13167,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13154,7 +13181,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13168,7 +13195,7 @@
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13182,7 +13209,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13204,13 +13231,13 @@
         <v>1365</v>
       </c>
       <c r="B44" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13224,7 +13251,7 @@
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13246,13 +13273,13 @@
         <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13260,13 +13287,13 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13280,7 +13307,7 @@
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13294,7 +13321,7 @@
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13336,7 +13363,7 @@
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13358,13 +13385,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13378,7 +13405,7 @@
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13392,7 +13419,7 @@
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13406,7 +13433,7 @@
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13420,7 +13447,7 @@
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13448,7 +13475,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13476,21 +13503,21 @@
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1372</v>
+        <v>1213</v>
       </c>
       <c r="B64" t="s">
-        <v>1487</v>
+        <v>2405</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>2362</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13498,27 +13525,27 @@
         <v>1372</v>
       </c>
       <c r="B65" t="s">
-        <v>1933</v>
+        <v>1487</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>2125</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B66" t="s">
-        <v>1549</v>
+        <v>1934</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1572</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -13526,27 +13553,27 @@
         <v>1373</v>
       </c>
       <c r="B67" t="s">
-        <v>1938</v>
+        <v>1549</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>2126</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B68" t="s">
-        <v>1550</v>
+        <v>1939</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>2363</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -13554,21 +13581,21 @@
         <v>1374</v>
       </c>
       <c r="B69" t="s">
-        <v>323</v>
+        <v>1550</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>2127</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B70" t="s">
-        <v>1488</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
@@ -13579,10 +13606,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B71" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
@@ -13593,16 +13620,16 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B72" t="s">
-        <v>1522</v>
+        <v>1489</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>2364</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -13610,27 +13637,27 @@
         <v>1377</v>
       </c>
       <c r="B73" t="s">
-        <v>1943</v>
+        <v>1522</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>2130</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B74" t="s">
-        <v>1551</v>
+        <v>1944</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>2365</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13638,35 +13665,35 @@
         <v>1378</v>
       </c>
       <c r="B75" t="s">
-        <v>1944</v>
+        <v>1551</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1574</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B76" t="s">
-        <v>1490</v>
+        <v>1945</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>2131</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B77" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
@@ -13677,10 +13704,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B78" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
@@ -13691,10 +13718,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>1381</v>
       </c>
       <c r="B79" t="s">
-        <v>336</v>
+        <v>1491</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
@@ -13705,16 +13732,16 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1573</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13722,21 +13749,21 @@
         <v>273</v>
       </c>
       <c r="B81" t="s">
-        <v>1949</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>2135</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>1382</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>1492</v>
+        <v>1950</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
@@ -13747,16 +13774,16 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B83" t="s">
-        <v>1552</v>
+        <v>1492</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>2366</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13764,21 +13791,21 @@
         <v>1383</v>
       </c>
       <c r="B84" t="s">
-        <v>1953</v>
+        <v>1552</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>2137</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B85" t="s">
-        <v>1327</v>
+        <v>1954</v>
       </c>
       <c r="C85" t="s">
         <v>499</v>
@@ -13789,10 +13816,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B86" t="s">
-        <v>1493</v>
+        <v>1327</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
@@ -13803,16 +13830,16 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B87" t="s">
-        <v>1553</v>
+        <v>1493</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>2367</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13820,21 +13847,21 @@
         <v>1386</v>
       </c>
       <c r="B88" t="s">
-        <v>1956</v>
+        <v>1553</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>2140</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>1386</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>1957</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
@@ -13845,16 +13872,16 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>1387</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>1307</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>2368</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13862,21 +13889,21 @@
         <v>1387</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>1307</v>
       </c>
       <c r="C91" t="s">
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>2142</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B92" t="s">
-        <v>1169</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
         <v>499</v>
@@ -13887,16 +13914,16 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>1388</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>1169</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>2369</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13904,21 +13931,21 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>1246</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>2144</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>1389</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>1246</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
@@ -13929,10 +13956,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B96" t="s">
-        <v>1494</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
         <v>499</v>
@@ -13943,10 +13970,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>1494</v>
       </c>
       <c r="C97" t="s">
         <v>499</v>
@@ -13957,10 +13984,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B98" t="s">
-        <v>1495</v>
+        <v>329</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
@@ -13971,16 +13998,16 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>1392</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>1495</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2404</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13988,21 +14015,21 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>1267</v>
+        <v>345</v>
       </c>
       <c r="C100" t="s">
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>2149</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>1393</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>1496</v>
+        <v>1267</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
@@ -14013,16 +14040,16 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>1393</v>
       </c>
       <c r="B102" t="s">
-        <v>475</v>
+        <v>1496</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>2370</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14030,21 +14057,21 @@
         <v>283</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>475</v>
       </c>
       <c r="C103" t="s">
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>2151</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>1394</v>
+        <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>1497</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
@@ -14055,10 +14082,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B105" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
@@ -14069,10 +14096,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B106" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C106" t="s">
         <v>499</v>
@@ -14083,10 +14110,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B107" t="s">
-        <v>416</v>
+        <v>1499</v>
       </c>
       <c r="C107" t="s">
         <v>499</v>
@@ -14097,10 +14124,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>1397</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
@@ -14111,10 +14138,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
         <v>499</v>
@@ -14125,16 +14152,16 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>2371</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -14142,27 +14169,27 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>1237</v>
+        <v>395</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>1575</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
+        <v>1237</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>2372</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -14170,21 +14197,21 @@
         <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>1968</v>
+        <v>428</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>2158</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>1398</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
-        <v>1500</v>
+        <v>1969</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
@@ -14195,10 +14222,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>1398</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>1500</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
@@ -14209,10 +14236,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>1399</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>1501</v>
+        <v>359</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
@@ -14223,10 +14250,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>1399</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>1501</v>
       </c>
       <c r="C117" t="s">
         <v>499</v>
@@ -14237,10 +14264,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>1400</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>1502</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
@@ -14254,35 +14281,35 @@
         <v>1400</v>
       </c>
       <c r="B119" t="s">
-        <v>499</v>
+        <v>1502</v>
       </c>
       <c r="C119" t="s">
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>2348</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>1400</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>499</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>2164</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>1401</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
@@ -14293,10 +14320,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B122" t="s">
-        <v>1503</v>
+        <v>334</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
@@ -14307,16 +14334,16 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>1402</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>1503</v>
       </c>
       <c r="C123" t="s">
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>2373</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -14324,21 +14351,21 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>1977</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>2167</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>1403</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>1504</v>
+        <v>1978</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
@@ -14349,10 +14376,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B126" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
@@ -14363,10 +14390,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B127" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
@@ -14377,10 +14404,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B128" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
@@ -14391,10 +14418,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B129" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C129" t="s">
         <v>499</v>
@@ -14405,10 +14432,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B130" t="s">
-        <v>437</v>
+        <v>1508</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
@@ -14419,10 +14446,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>1408</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C131" t="s">
         <v>499</v>
@@ -14433,10 +14460,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>1409</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>1509</v>
+        <v>420</v>
       </c>
       <c r="C132" t="s">
         <v>499</v>
@@ -14447,10 +14474,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>1409</v>
       </c>
       <c r="B133" t="s">
-        <v>414</v>
+        <v>1509</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
@@ -14461,10 +14488,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="C134" t="s">
         <v>499</v>
@@ -14475,10 +14502,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>1410</v>
+        <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
         <v>499</v>
@@ -14489,16 +14516,16 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>1201</v>
+        <v>1410</v>
       </c>
       <c r="B136" t="s">
-        <v>1554</v>
+        <v>53</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>1008</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -14506,13 +14533,13 @@
         <v>1201</v>
       </c>
       <c r="B137" t="s">
-        <v>1202</v>
+        <v>1554</v>
       </c>
       <c r="C137" t="s">
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -14520,7 +14547,7 @@
         <v>1201</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>1202</v>
       </c>
       <c r="C138" t="s">
         <v>499</v>
@@ -14531,24 +14558,24 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>1411</v>
+        <v>1201</v>
       </c>
       <c r="B139" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2179</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B140" t="s">
-        <v>1510</v>
+        <v>448</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
@@ -14559,10 +14586,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B141" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C141" t="s">
         <v>499</v>
@@ -14573,16 +14600,16 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>1413</v>
       </c>
       <c r="B142" t="s">
-        <v>1542</v>
+        <v>1511</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>1265</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -14590,21 +14617,21 @@
         <v>251</v>
       </c>
       <c r="B143" t="s">
-        <v>1991</v>
+        <v>1542</v>
       </c>
       <c r="C143" t="s">
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>2182</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>1992</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
@@ -14618,27 +14645,27 @@
         <v>110</v>
       </c>
       <c r="B145" t="s">
-        <v>2291</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>2350</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>2292</v>
       </c>
       <c r="C146" t="s">
         <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>2374</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -14646,27 +14673,27 @@
         <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>1995</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>2184</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>1187</v>
+        <v>37</v>
       </c>
       <c r="B148" t="s">
-        <v>1492</v>
+        <v>1996</v>
       </c>
       <c r="C148" t="s">
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>2375</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -14674,27 +14701,27 @@
         <v>1187</v>
       </c>
       <c r="B149" t="s">
-        <v>1233</v>
+        <v>1492</v>
       </c>
       <c r="C149" t="s">
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>1021</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>1187</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>1233</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>2376</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -14702,27 +14729,27 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>1996</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>2185</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>1414</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>1512</v>
+        <v>1997</v>
       </c>
       <c r="C152" t="s">
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>2377</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -14730,27 +14757,27 @@
         <v>1414</v>
       </c>
       <c r="B153" t="s">
-        <v>1997</v>
+        <v>1512</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>2186</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>1414</v>
       </c>
       <c r="B154" t="s">
-        <v>442</v>
+        <v>1998</v>
       </c>
       <c r="C154" t="s">
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>2378</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -14758,21 +14785,21 @@
         <v>236</v>
       </c>
       <c r="B155" t="s">
-        <v>1998</v>
+        <v>442</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>2187</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>1415</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>362</v>
+        <v>1999</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
@@ -14783,10 +14810,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B157" t="s">
-        <v>1513</v>
+        <v>362</v>
       </c>
       <c r="C157" t="s">
         <v>499</v>
@@ -14797,16 +14824,16 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B158" t="s">
-        <v>1555</v>
+        <v>1513</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
       </c>
       <c r="D158" t="s">
-        <v>2379</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14814,27 +14841,27 @@
         <v>1417</v>
       </c>
       <c r="B159" t="s">
-        <v>2001</v>
+        <v>1555</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>1029</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B160" t="s">
-        <v>1514</v>
+        <v>2002</v>
       </c>
       <c r="C160" t="s">
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2190</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -14842,27 +14869,27 @@
         <v>1418</v>
       </c>
       <c r="B161" t="s">
-        <v>2287</v>
+        <v>1514</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>1030</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B162" t="s">
-        <v>1556</v>
+        <v>2288</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>2380</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -14870,41 +14897,41 @@
         <v>1419</v>
       </c>
       <c r="B163" t="s">
-        <v>2002</v>
+        <v>1556</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>1031</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B164" t="s">
-        <v>1167</v>
+        <v>2003</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>2191</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B165" t="s">
-        <v>1557</v>
+        <v>1167</v>
       </c>
       <c r="C165" t="s">
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>2381</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -14912,41 +14939,41 @@
         <v>1421</v>
       </c>
       <c r="B166" t="s">
-        <v>2004</v>
+        <v>1557</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>1034</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B167" t="s">
-        <v>1515</v>
+        <v>2005</v>
       </c>
       <c r="C167" t="s">
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>2192</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>1515</v>
       </c>
       <c r="C168" t="s">
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>1576</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -14954,21 +14981,21 @@
         <v>1423</v>
       </c>
       <c r="B169" t="s">
-        <v>2006</v>
+        <v>337</v>
       </c>
       <c r="C169" t="s">
         <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>2193</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B170" t="s">
-        <v>1516</v>
+        <v>2007</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
@@ -14979,16 +15006,16 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B171" t="s">
-        <v>1558</v>
+        <v>1516</v>
       </c>
       <c r="C171" t="s">
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>2382</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -14996,35 +15023,35 @@
         <v>1425</v>
       </c>
       <c r="B172" t="s">
-        <v>2010</v>
+        <v>1558</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>1040</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>1425</v>
       </c>
       <c r="B173" t="s">
-        <v>392</v>
+        <v>2011</v>
       </c>
       <c r="C173" t="s">
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2195</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C174" t="s">
         <v>499</v>
@@ -15035,10 +15062,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>1426</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>1517</v>
+        <v>353</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
@@ -15049,10 +15076,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B176" t="s">
-        <v>1854</v>
+        <v>1517</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
@@ -15063,10 +15090,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B177" t="s">
-        <v>1518</v>
+        <v>1855</v>
       </c>
       <c r="C177" t="s">
         <v>499</v>
@@ -15077,10 +15104,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>1428</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>1518</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
@@ -15091,16 +15118,16 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>1429</v>
+        <v>134</v>
       </c>
       <c r="B179" t="s">
-        <v>1559</v>
+        <v>360</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>2383</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -15108,21 +15135,21 @@
         <v>1429</v>
       </c>
       <c r="B180" t="s">
-        <v>1499</v>
+        <v>1559</v>
       </c>
       <c r="C180" t="s">
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>2201</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>1429</v>
       </c>
       <c r="B181" t="s">
-        <v>446</v>
+        <v>1499</v>
       </c>
       <c r="C181" t="s">
         <v>499</v>
@@ -15133,10 +15160,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>1430</v>
+        <v>243</v>
       </c>
       <c r="B182" t="s">
-        <v>1519</v>
+        <v>446</v>
       </c>
       <c r="C182" t="s">
         <v>499</v>
@@ -15147,16 +15174,16 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>168</v>
+        <v>1430</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>1519</v>
       </c>
       <c r="C183" t="s">
         <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>2384</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -15164,27 +15191,27 @@
         <v>168</v>
       </c>
       <c r="B184" t="s">
-        <v>1208</v>
+        <v>387</v>
       </c>
       <c r="C184" t="s">
         <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>2204</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>1175</v>
+        <v>168</v>
       </c>
       <c r="B185" t="s">
-        <v>472</v>
+        <v>1208</v>
       </c>
       <c r="C185" t="s">
         <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>2385</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -15192,27 +15219,27 @@
         <v>1175</v>
       </c>
       <c r="B186" t="s">
-        <v>1176</v>
+        <v>472</v>
       </c>
       <c r="C186" t="s">
         <v>499</v>
       </c>
       <c r="D186" t="s">
-        <v>1578</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>1431</v>
+        <v>1175</v>
       </c>
       <c r="B187" t="s">
-        <v>1561</v>
+        <v>1176</v>
       </c>
       <c r="C187" t="s">
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>2386</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -15220,35 +15247,35 @@
         <v>1431</v>
       </c>
       <c r="B188" t="s">
-        <v>2019</v>
+        <v>1561</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
       </c>
       <c r="D188" t="s">
-        <v>1051</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B189" t="s">
-        <v>1520</v>
+        <v>2020</v>
       </c>
       <c r="C189" t="s">
         <v>499</v>
       </c>
       <c r="D189" t="s">
-        <v>2205</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>1249</v>
+        <v>1432</v>
       </c>
       <c r="B190" t="s">
-        <v>1244</v>
+        <v>1520</v>
       </c>
       <c r="C190" t="s">
         <v>499</v>
@@ -15259,10 +15286,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>1433</v>
+        <v>1249</v>
       </c>
       <c r="B191" t="s">
-        <v>1521</v>
+        <v>1244</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
@@ -15273,16 +15300,16 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>158</v>
+        <v>1433</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>1521</v>
       </c>
       <c r="C192" t="s">
         <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>1577</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -15290,27 +15317,27 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>2023</v>
+        <v>307</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
       </c>
       <c r="D193" t="s">
-        <v>2208</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="B194" t="s">
-        <v>470</v>
+        <v>2024</v>
       </c>
       <c r="C194" t="s">
         <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>2387</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -15318,21 +15345,21 @@
         <v>275</v>
       </c>
       <c r="B195" t="s">
-        <v>2026</v>
+        <v>470</v>
       </c>
       <c r="C195" t="s">
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>2209</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>1434</v>
+        <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>1522</v>
+        <v>2027</v>
       </c>
       <c r="C196" t="s">
         <v>499</v>
@@ -15343,16 +15370,16 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>143</v>
+        <v>1434</v>
       </c>
       <c r="B197" t="s">
-        <v>368</v>
+        <v>1522</v>
       </c>
       <c r="C197" t="s">
         <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>2388</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -15360,41 +15387,41 @@
         <v>143</v>
       </c>
       <c r="B198" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="C198" t="s">
         <v>499</v>
       </c>
       <c r="D198" t="s">
-        <v>1059</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>1435</v>
+        <v>143</v>
       </c>
       <c r="B199" t="s">
-        <v>1523</v>
+        <v>302</v>
       </c>
       <c r="C199" t="s">
         <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>2211</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B200" t="s">
-        <v>1562</v>
+        <v>1523</v>
       </c>
       <c r="C200" t="s">
         <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>2389</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -15402,27 +15429,27 @@
         <v>1436</v>
       </c>
       <c r="B201" t="s">
-        <v>469</v>
+        <v>1562</v>
       </c>
       <c r="C201" t="s">
         <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>2212</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B202" t="s">
-        <v>1563</v>
+        <v>469</v>
       </c>
       <c r="C202" t="s">
         <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>2390</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -15430,27 +15457,27 @@
         <v>1437</v>
       </c>
       <c r="B203" t="s">
-        <v>2031</v>
+        <v>1563</v>
       </c>
       <c r="C203" t="s">
         <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>1063</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B204" t="s">
-        <v>1531</v>
+        <v>2032</v>
       </c>
       <c r="C204" t="s">
         <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>2391</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -15458,21 +15485,21 @@
         <v>1438</v>
       </c>
       <c r="B205" t="s">
-        <v>2032</v>
+        <v>1531</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>2213</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B206" t="s">
-        <v>1524</v>
+        <v>2033</v>
       </c>
       <c r="C206" t="s">
         <v>499</v>
@@ -15483,10 +15510,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B207" t="s">
-        <v>337</v>
+        <v>1524</v>
       </c>
       <c r="C207" t="s">
         <v>499</v>
@@ -15497,10 +15524,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B208" t="s">
-        <v>1525</v>
+        <v>337</v>
       </c>
       <c r="C208" t="s">
         <v>499</v>
@@ -15511,10 +15538,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B209" t="s">
-        <v>1230</v>
+        <v>1525</v>
       </c>
       <c r="C209" t="s">
         <v>499</v>
@@ -15525,10 +15552,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>150</v>
+        <v>1442</v>
       </c>
       <c r="B210" t="s">
-        <v>361</v>
+        <v>1230</v>
       </c>
       <c r="C210" t="s">
         <v>499</v>
@@ -15539,10 +15566,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="C211" t="s">
         <v>499</v>
@@ -15553,10 +15580,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>1443</v>
+        <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>1526</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
         <v>499</v>
@@ -15567,10 +15594,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B213" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C213" t="s">
         <v>499</v>
@@ -15581,10 +15608,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>142</v>
+        <v>1444</v>
       </c>
       <c r="B214" t="s">
-        <v>336</v>
+        <v>1527</v>
       </c>
       <c r="C214" t="s">
         <v>499</v>
@@ -15595,16 +15622,16 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>1157</v>
+        <v>142</v>
       </c>
       <c r="B215" t="s">
-        <v>1528</v>
+        <v>336</v>
       </c>
       <c r="C215" t="s">
         <v>499</v>
       </c>
       <c r="D215" t="s">
-        <v>2392</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -15612,27 +15639,27 @@
         <v>1157</v>
       </c>
       <c r="B216" t="s">
-        <v>1282</v>
+        <v>1528</v>
       </c>
       <c r="C216" t="s">
         <v>499</v>
       </c>
       <c r="D216" t="s">
-        <v>2223</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>1445</v>
+        <v>1157</v>
       </c>
       <c r="B217" t="s">
-        <v>1529</v>
+        <v>1282</v>
       </c>
       <c r="C217" t="s">
         <v>499</v>
       </c>
       <c r="D217" t="s">
-        <v>2393</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -15640,21 +15667,21 @@
         <v>1445</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>1529</v>
       </c>
       <c r="C218" t="s">
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>2224</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>1207</v>
+        <v>1445</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="C219" t="s">
         <v>499</v>
@@ -15665,16 +15692,16 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>1446</v>
+        <v>1207</v>
       </c>
       <c r="B220" t="s">
-        <v>1564</v>
+        <v>336</v>
       </c>
       <c r="C220" t="s">
         <v>499</v>
       </c>
       <c r="D220" t="s">
-        <v>1579</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -15682,13 +15709,13 @@
         <v>1446</v>
       </c>
       <c r="B221" t="s">
-        <v>2041</v>
+        <v>1564</v>
       </c>
       <c r="C221" t="s">
         <v>499</v>
       </c>
       <c r="D221" t="s">
-        <v>2226</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -15696,27 +15723,27 @@
         <v>1446</v>
       </c>
       <c r="B222" t="s">
-        <v>2289</v>
+        <v>2042</v>
       </c>
       <c r="C222" t="s">
         <v>499</v>
       </c>
       <c r="D222" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B223" t="s">
-        <v>363</v>
+        <v>2290</v>
       </c>
       <c r="C223" t="s">
         <v>499</v>
       </c>
       <c r="D223" t="s">
-        <v>2394</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -15724,27 +15751,27 @@
         <v>1447</v>
       </c>
       <c r="B224" t="s">
-        <v>2042</v>
+        <v>363</v>
       </c>
       <c r="C224" t="s">
         <v>499</v>
       </c>
       <c r="D224" t="s">
-        <v>1580</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B225" t="s">
-        <v>437</v>
+        <v>2043</v>
       </c>
       <c r="C225" t="s">
         <v>499</v>
       </c>
       <c r="D225" t="s">
-        <v>2395</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -15752,21 +15779,21 @@
         <v>1448</v>
       </c>
       <c r="B226" t="s">
-        <v>2043</v>
+        <v>437</v>
       </c>
       <c r="C226" t="s">
         <v>499</v>
       </c>
       <c r="D226" t="s">
-        <v>2227</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B227" t="s">
-        <v>48</v>
+        <v>2044</v>
       </c>
       <c r="C227" t="s">
         <v>499</v>
@@ -15777,10 +15804,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>85</v>
+        <v>1449</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
         <v>499</v>
@@ -15791,10 +15818,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>1450</v>
+        <v>85</v>
       </c>
       <c r="B229" t="s">
-        <v>1315</v>
+        <v>317</v>
       </c>
       <c r="C229" t="s">
         <v>499</v>
@@ -15805,10 +15832,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>1315</v>
       </c>
       <c r="C230" t="s">
         <v>499</v>
@@ -15819,16 +15846,16 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B231" t="s">
-        <v>1565</v>
+        <v>320</v>
       </c>
       <c r="C231" t="s">
         <v>499</v>
       </c>
       <c r="D231" t="s">
-        <v>2396</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -15836,21 +15863,21 @@
         <v>1452</v>
       </c>
       <c r="B232" t="s">
-        <v>2047</v>
+        <v>1565</v>
       </c>
       <c r="C232" t="s">
         <v>499</v>
       </c>
       <c r="D232" t="s">
-        <v>2232</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B233" t="s">
-        <v>1530</v>
+        <v>2048</v>
       </c>
       <c r="C233" t="s">
         <v>499</v>
@@ -15861,10 +15888,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B234" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C234" t="s">
         <v>499</v>
@@ -15875,10 +15902,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B235" t="s">
-        <v>45</v>
+        <v>1531</v>
       </c>
       <c r="C235" t="s">
         <v>499</v>
@@ -15889,10 +15916,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B236" t="s">
-        <v>1532</v>
+        <v>45</v>
       </c>
       <c r="C236" t="s">
         <v>499</v>
@@ -15903,10 +15930,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>1456</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>1532</v>
       </c>
       <c r="C237" t="s">
         <v>499</v>
@@ -15917,10 +15944,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>1457</v>
+        <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>1533</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
         <v>499</v>
@@ -15931,16 +15958,16 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B239" t="s">
-        <v>1560</v>
+        <v>1533</v>
       </c>
       <c r="C239" t="s">
         <v>499</v>
       </c>
       <c r="D239" t="s">
-        <v>1581</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -15948,27 +15975,27 @@
         <v>1458</v>
       </c>
       <c r="B240" t="s">
-        <v>2053</v>
+        <v>1560</v>
       </c>
       <c r="C240" t="s">
         <v>499</v>
       </c>
       <c r="D240" t="s">
-        <v>2239</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>1159</v>
+        <v>1458</v>
       </c>
       <c r="B241" t="s">
-        <v>62</v>
+        <v>2054</v>
       </c>
       <c r="C241" t="s">
         <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>2397</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -15976,21 +16003,21 @@
         <v>1159</v>
       </c>
       <c r="B242" t="s">
-        <v>2056</v>
+        <v>62</v>
       </c>
       <c r="C242" t="s">
         <v>499</v>
       </c>
       <c r="D242" t="s">
-        <v>2240</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>1459</v>
+        <v>1159</v>
       </c>
       <c r="B243" t="s">
-        <v>1534</v>
+        <v>2057</v>
       </c>
       <c r="C243" t="s">
         <v>499</v>
@@ -16001,16 +16028,16 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B244" t="s">
-        <v>1566</v>
+        <v>1534</v>
       </c>
       <c r="C244" t="s">
         <v>499</v>
       </c>
       <c r="D244" t="s">
-        <v>2398</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -16018,35 +16045,35 @@
         <v>1460</v>
       </c>
       <c r="B245" t="s">
-        <v>2058</v>
+        <v>1566</v>
       </c>
       <c r="C245" t="s">
         <v>499</v>
       </c>
       <c r="D245" t="s">
-        <v>505</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>1460</v>
       </c>
       <c r="B246" t="s">
-        <v>469</v>
+        <v>2059</v>
       </c>
       <c r="C246" t="s">
         <v>499</v>
       </c>
       <c r="D246" t="s">
-        <v>2242</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>1461</v>
+        <v>274</v>
       </c>
       <c r="B247" t="s">
-        <v>1535</v>
+        <v>469</v>
       </c>
       <c r="C247" t="s">
         <v>499</v>
@@ -16057,10 +16084,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>155</v>
+        <v>1461</v>
       </c>
       <c r="B248" t="s">
-        <v>378</v>
+        <v>1535</v>
       </c>
       <c r="C248" t="s">
         <v>499</v>
@@ -16071,10 +16098,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>1462</v>
+        <v>155</v>
       </c>
       <c r="B249" t="s">
-        <v>1167</v>
+        <v>378</v>
       </c>
       <c r="C249" t="s">
         <v>499</v>
@@ -16085,10 +16112,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B250" t="s">
-        <v>437</v>
+        <v>1167</v>
       </c>
       <c r="C250" t="s">
         <v>499</v>
@@ -16099,16 +16126,16 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>162</v>
+        <v>1463</v>
       </c>
       <c r="B251" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="C251" t="s">
         <v>499</v>
       </c>
       <c r="D251" t="s">
-        <v>2399</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -16116,41 +16143,41 @@
         <v>162</v>
       </c>
       <c r="B252" t="s">
-        <v>2061</v>
+        <v>383</v>
       </c>
       <c r="C252" t="s">
         <v>499</v>
       </c>
       <c r="D252" t="s">
-        <v>1582</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>1464</v>
+        <v>162</v>
       </c>
       <c r="B253" t="s">
-        <v>1536</v>
+        <v>2062</v>
       </c>
       <c r="C253" t="s">
         <v>499</v>
       </c>
       <c r="D253" t="s">
-        <v>2247</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B254" t="s">
-        <v>1567</v>
+        <v>1536</v>
       </c>
       <c r="C254" t="s">
         <v>499</v>
       </c>
       <c r="D254" t="s">
-        <v>1099</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -16158,21 +16185,21 @@
         <v>1465</v>
       </c>
       <c r="B255" t="s">
-        <v>2063</v>
+        <v>1567</v>
       </c>
       <c r="C255" t="s">
         <v>499</v>
       </c>
       <c r="D255" t="s">
-        <v>2248</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B256" t="s">
-        <v>1537</v>
+        <v>2064</v>
       </c>
       <c r="C256" t="s">
         <v>499</v>
@@ -16183,10 +16210,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>268</v>
+        <v>1466</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>1537</v>
       </c>
       <c r="C257" t="s">
         <v>499</v>
@@ -16197,10 +16224,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B258" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C258" t="s">
         <v>499</v>
@@ -16211,10 +16238,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="C259" t="s">
         <v>499</v>
@@ -16225,10 +16252,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="B260" t="s">
-        <v>464</v>
+        <v>39</v>
       </c>
       <c r="C260" t="s">
         <v>499</v>
@@ -16239,10 +16266,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>1467</v>
+        <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>1240</v>
+        <v>464</v>
       </c>
       <c r="C261" t="s">
         <v>499</v>
@@ -16253,10 +16280,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B262" t="s">
-        <v>1538</v>
+        <v>1240</v>
       </c>
       <c r="C262" t="s">
         <v>499</v>
@@ -16267,10 +16294,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B263" t="s">
-        <v>1168</v>
+        <v>1538</v>
       </c>
       <c r="C263" t="s">
         <v>499</v>
@@ -16281,10 +16308,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B264" t="s">
-        <v>1539</v>
+        <v>1168</v>
       </c>
       <c r="C264" t="s">
         <v>499</v>
@@ -16295,10 +16322,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B265" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C265" t="s">
         <v>499</v>
@@ -16309,10 +16336,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B266" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C266" t="s">
         <v>499</v>
@@ -16323,16 +16350,16 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B267" t="s">
-        <v>1227</v>
+        <v>1541</v>
       </c>
       <c r="C267" t="s">
         <v>499</v>
       </c>
       <c r="D267" t="s">
-        <v>2400</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -16340,21 +16367,21 @@
         <v>1473</v>
       </c>
       <c r="B268" t="s">
-        <v>2076</v>
+        <v>1227</v>
       </c>
       <c r="C268" t="s">
         <v>499</v>
       </c>
       <c r="D268" t="s">
-        <v>2260</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B269" t="s">
-        <v>373</v>
+        <v>2077</v>
       </c>
       <c r="C269" t="s">
         <v>499</v>
@@ -16368,41 +16395,41 @@
         <v>1474</v>
       </c>
       <c r="B270" t="s">
-        <v>1492</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
         <v>499</v>
       </c>
       <c r="D270" t="s">
-        <v>2349</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B271" t="s">
-        <v>458</v>
+        <v>1492</v>
       </c>
       <c r="C271" t="s">
         <v>499</v>
       </c>
       <c r="D271" t="s">
-        <v>2262</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>105</v>
+        <v>1475</v>
       </c>
       <c r="B272" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="C272" t="s">
         <v>499</v>
       </c>
       <c r="D272" t="s">
-        <v>2401</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -16410,27 +16437,27 @@
         <v>105</v>
       </c>
       <c r="B273" t="s">
-        <v>1272</v>
+        <v>335</v>
       </c>
       <c r="C273" t="s">
         <v>499</v>
       </c>
       <c r="D273" t="s">
-        <v>2263</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="B274" t="s">
-        <v>1891</v>
+        <v>1272</v>
       </c>
       <c r="C274" t="s">
         <v>499</v>
       </c>
       <c r="D274" t="s">
-        <v>1583</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -16438,27 +16465,27 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>2078</v>
+        <v>1892</v>
       </c>
       <c r="C275" t="s">
         <v>499</v>
       </c>
       <c r="D275" t="s">
-        <v>2264</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="B276" t="s">
-        <v>330</v>
+        <v>2079</v>
       </c>
       <c r="C276" t="s">
         <v>499</v>
       </c>
       <c r="D276" t="s">
-        <v>2402</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -16466,21 +16493,21 @@
         <v>99</v>
       </c>
       <c r="B277" t="s">
-        <v>1324</v>
+        <v>330</v>
       </c>
       <c r="C277" t="s">
         <v>499</v>
       </c>
       <c r="D277" t="s">
-        <v>2265</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="B278" t="s">
-        <v>46</v>
+        <v>1324</v>
       </c>
       <c r="C278" t="s">
         <v>499</v>
@@ -16491,10 +16518,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>1231</v>
+        <v>211</v>
       </c>
       <c r="B279" t="s">
-        <v>1168</v>
+        <v>46</v>
       </c>
       <c r="C279" t="s">
         <v>499</v>
@@ -16505,10 +16532,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>1231</v>
       </c>
       <c r="B280" t="s">
-        <v>477</v>
+        <v>1168</v>
       </c>
       <c r="C280" t="s">
         <v>499</v>
@@ -16519,10 +16546,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>1476</v>
+        <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>1542</v>
+        <v>477</v>
       </c>
       <c r="C281" t="s">
         <v>499</v>
@@ -16533,10 +16560,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>140</v>
+        <v>1476</v>
       </c>
       <c r="B282" t="s">
-        <v>366</v>
+        <v>1542</v>
       </c>
       <c r="C282" t="s">
         <v>499</v>
@@ -16547,10 +16574,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B283" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
         <v>499</v>
@@ -16561,10 +16588,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>1477</v>
+        <v>159</v>
       </c>
       <c r="B284" t="s">
-        <v>1543</v>
+        <v>381</v>
       </c>
       <c r="C284" t="s">
         <v>499</v>
@@ -16575,10 +16602,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>212</v>
+        <v>1477</v>
       </c>
       <c r="B285" t="s">
-        <v>422</v>
+        <v>1543</v>
       </c>
       <c r="C285" t="s">
         <v>499</v>
@@ -16589,10 +16616,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B286" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="C286" t="s">
         <v>499</v>
@@ -16606,13 +16633,13 @@
         <v>198</v>
       </c>
       <c r="B287" t="s">
-        <v>499</v>
+        <v>331</v>
       </c>
       <c r="C287" t="s">
         <v>499</v>
       </c>
       <c r="D287" t="s">
-        <v>2351</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -16620,7 +16647,7 @@
         <v>198</v>
       </c>
       <c r="B288" t="s">
-        <v>56</v>
+        <v>499</v>
       </c>
       <c r="C288" t="s">
         <v>499</v>
@@ -16631,30 +16658,58 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>1902</v>
+        <v>198</v>
       </c>
       <c r="B289" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C289" t="s">
         <v>499</v>
       </c>
       <c r="D289" t="s">
-        <v>1904</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B290" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" t="s">
+        <v>499</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B291" t="s">
         <v>1499</v>
       </c>
-      <c r="C290" t="s">
-        <v>499</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1904</v>
+      <c r="C291" t="s">
+        <v>499</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B292" t="s">
+        <v>121</v>
+      </c>
+      <c r="C292" t="s">
+        <v>499</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2406</v>
       </c>
     </row>
   </sheetData>
@@ -16692,10 +16747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF3FA2-6E4F-4842-910C-270E65CE26E4}">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721682EE-F732-4461-B356-B0AC08319896}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -16715,7 +16772,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B2" t="s">
         <v>1499</v>
@@ -16724,7 +16781,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16738,7 +16795,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16760,7 +16817,7 @@
         <v>1355</v>
       </c>
       <c r="B5" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
@@ -16780,7 +16837,7 @@
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16794,7 +16851,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16808,7 +16865,7 @@
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>2345</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16816,7 +16873,7 @@
         <v>1359</v>
       </c>
       <c r="B9" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
@@ -16836,7 +16893,7 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -16844,7 +16901,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
@@ -16864,7 +16921,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16872,13 +16929,13 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -16892,7 +16949,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -16900,13 +16957,13 @@
         <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16934,7 +16991,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16948,7 +17005,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16976,239 +17033,239 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B21" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>2127</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B22" t="s">
-        <v>1522</v>
+        <v>1550</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B23" t="s">
-        <v>1551</v>
+        <v>1522</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1574</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B24" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>2137</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B25" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B26" t="s">
-        <v>1307</v>
+        <v>1553</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1387</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>1307</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>475</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1575</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>2158</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1201</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1016</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>1201</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>2184</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1187</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>1492</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1021</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>1187</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>1492</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>2185</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1414</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>1512</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
@@ -17219,10 +17276,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>1414</v>
       </c>
       <c r="B38" t="s">
-        <v>442</v>
+        <v>1512</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
@@ -17233,421 +17290,435 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1417</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
-        <v>1555</v>
+        <v>442</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1029</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B40" t="s">
-        <v>2287</v>
+        <v>1555</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B41" t="s">
-        <v>1556</v>
+        <v>2288</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B42" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B43" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B44" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1577</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>1429</v>
       </c>
       <c r="B45" t="s">
-        <v>387</v>
+        <v>1559</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>2204</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1175</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1578</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1431</v>
+        <v>1175</v>
       </c>
       <c r="B47" t="s">
-        <v>1561</v>
+        <v>472</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>1051</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>1431</v>
       </c>
       <c r="B48" t="s">
-        <v>470</v>
+        <v>1561</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>2209</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>470</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1059</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1436</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>1562</v>
+        <v>368</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>2212</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B51" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1063</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B52" t="s">
-        <v>1531</v>
+        <v>1563</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>2213</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>1157</v>
+        <v>1438</v>
       </c>
       <c r="B53" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>2223</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1400</v>
+        <v>1157</v>
       </c>
       <c r="B54" t="s">
-        <v>1502</v>
+        <v>1528</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>2348</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>1445</v>
+        <v>1400</v>
       </c>
       <c r="B55" t="s">
-        <v>1529</v>
+        <v>1502</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>2224</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B56" t="s">
-        <v>2289</v>
+        <v>1529</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>2290</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>1580</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B58" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2227</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B59" t="s">
-        <v>1565</v>
+        <v>437</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1159</v>
+        <v>1452</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>1565</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>1460</v>
+        <v>1159</v>
       </c>
       <c r="B61" t="s">
-        <v>1566</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>505</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>1460</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>1566</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1582</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1473</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>1227</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>2260</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B64" t="s">
-        <v>1492</v>
+        <v>1227</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>2349</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>1474</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>1492</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>2263</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>2291</v>
+        <v>330</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>2350</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>198</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="C68" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
         <v>2351</v>
       </c>
     </row>
@@ -17661,8 +17732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -17797,7 +17869,7 @@
       <c r="R3" s="60"/>
       <c r="T3" s="16"/>
       <c r="V3" s="68" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -17832,30 +17904,30 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="76" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E5" s="76" t="s">
         <v>1602</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="76" t="s">
         <v>1603</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>1616</v>
       </c>
-      <c r="H5" s="75" t="s">
-        <v>1903</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>1901</v>
-      </c>
-      <c r="J5" s="75" t="str">
+      <c r="H5" s="76" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J5" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="K5" s="75"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -17871,16 +17943,16 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -17908,7 +17980,7 @@
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>611</v>
@@ -17940,7 +18012,7 @@
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>611</v>
@@ -17973,49 +18045,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="76" t="s">
         <v>1584</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="76" t="s">
         <v>1585</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>1586</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="76" t="s">
         <v>1587</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="76" t="s">
         <v>1590</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="76" t="s">
         <v>1591</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="76" t="s">
         <v>1592</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="76" t="s">
         <v>1593</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="O9" s="76" t="s">
         <v>1594</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="Q9" s="75" t="s">
+      <c r="Q9" s="76" t="s">
         <v>1596</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S9" s="21"/>
@@ -18025,42 +18097,42 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="31"/>
@@ -18073,19 +18145,19 @@
         <v>685</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>623</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
@@ -18097,7 +18169,7 @@
         <v>1803</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="R11" s="54"/>
       <c r="V11" s="63"/>
@@ -18108,19 +18180,19 @@
         <v>685</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>685</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>623</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>601</v>
@@ -18142,7 +18214,7 @@
         <v>1803</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="19"/>
@@ -18153,49 +18225,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>1597</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="76" t="s">
         <v>1597</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="76" t="s">
         <v>1599</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="76" t="s">
         <v>1600</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="76" t="s">
         <v>1601</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="76" t="s">
         <v>1602</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="76" t="s">
         <v>1603</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="N13" s="75" t="s">
+      <c r="N13" s="76" t="s">
         <v>1604</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="O13" s="76" t="s">
         <v>1605</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="P13" s="76" t="s">
         <v>1606</v>
       </c>
-      <c r="Q13" s="75" t="s">
+      <c r="Q13" s="76" t="s">
         <v>1607</v>
       </c>
-      <c r="R13" s="75" t="s">
+      <c r="R13" s="76" t="s">
         <v>1608</v>
       </c>
       <c r="S13" s="21"/>
@@ -18204,44 +18276,44 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E14" s="24" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>2297</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>2296</v>
-      </c>
       <c r="G14" s="24" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="31"/>
@@ -18259,7 +18331,7 @@
         <v>746</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
@@ -18273,7 +18345,7 @@
       </c>
       <c r="Q15" s="54"/>
       <c r="R15" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="V15" s="63"/>
     </row>
@@ -18296,7 +18368,7 @@
         <v>746</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>1805</v>
@@ -18328,49 +18400,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="76" t="s">
         <v>1609</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="76" t="s">
         <v>1610</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="76" t="s">
         <v>1611</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="76" t="s">
         <v>1612</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="76" t="s">
         <v>1613</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="76" t="s">
         <v>1614</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="76" t="s">
         <v>1615</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="76" t="s">
         <v>1616</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="N17" s="75" t="s">
+      <c r="N17" s="76" t="s">
         <v>1617</v>
       </c>
-      <c r="O17" s="75" t="s">
+      <c r="O17" s="76" t="s">
         <v>1618</v>
       </c>
-      <c r="P17" s="75" t="s">
+      <c r="P17" s="76" t="s">
         <v>1619</v>
       </c>
-      <c r="Q17" s="75" t="s">
+      <c r="Q17" s="76" t="s">
         <v>1620</v>
       </c>
-      <c r="R17" s="75" t="s">
+      <c r="R17" s="76" t="s">
         <v>1600</v>
       </c>
       <c r="S17" s="21"/>
@@ -18379,45 +18451,45 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="24" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="S18" s="31"/>
       <c r="V18" s="63"/>
@@ -18433,7 +18505,7 @@
         <v>864</v>
       </c>
       <c r="I19" s="54"/>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="69" t="s">
         <v>1810</v>
       </c>
       <c r="K19" s="54"/>
@@ -18443,9 +18515,11 @@
       <c r="M19" s="54" t="s">
         <v>756</v>
       </c>
-      <c r="N19" s="54"/>
+      <c r="N19" s="54" t="s">
+        <v>1812</v>
+      </c>
       <c r="O19" s="54" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
@@ -18481,16 +18555,16 @@
         <v>756</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>1939</v>
+        <v>1812</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
@@ -18501,49 +18575,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>1621</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="76" t="s">
         <v>1622</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="76" t="s">
         <v>1623</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="76" t="s">
         <v>1624</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="76" t="s">
         <v>1604</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="76" t="s">
         <v>1625</v>
       </c>
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="76" t="s">
         <v>1627</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="76" t="s">
         <v>1619</v>
       </c>
-      <c r="N21" s="75" t="s">
+      <c r="N21" s="76" t="s">
         <v>1628</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="O21" s="76" t="s">
         <v>1629</v>
       </c>
-      <c r="P21" s="75" t="s">
+      <c r="P21" s="76" t="s">
         <v>1630</v>
       </c>
-      <c r="Q21" s="75" t="s">
+      <c r="Q21" s="76" t="s">
         <v>1631</v>
       </c>
-      <c r="R21" s="75" t="s">
+      <c r="R21" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S21" s="21"/>
@@ -18552,42 +18626,42 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>1940</v>
+        <v>2407</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="31"/>
@@ -18597,10 +18671,10 @@
       <c r="B23" s="12"/>
       <c r="C23" s="34"/>
       <c r="D23" s="54" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -18609,62 +18683,62 @@
       <c r="J23" s="54"/>
       <c r="K23" s="54"/>
       <c r="L23" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="M23" s="54"/>
       <c r="N23" s="54" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="V23" s="63"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="18" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>1811</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>597</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="18" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="S24" s="19"/>
       <c r="V24" s="63"/>
@@ -18674,49 +18748,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="76" t="s">
         <v>1632</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="76" t="s">
         <v>1633</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="76" t="s">
         <v>1634</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="76" t="s">
         <v>1635</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="76" t="s">
         <v>1636</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="76" t="s">
         <v>1638</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="76" t="s">
         <v>1629</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="76" t="s">
         <v>1639</v>
       </c>
-      <c r="N25" s="75" t="s">
+      <c r="N25" s="76" t="s">
         <v>1640</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="O25" s="76" t="s">
         <v>1641</v>
       </c>
-      <c r="P25" s="75" t="s">
+      <c r="P25" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="Q25" s="75" t="s">
+      <c r="Q25" s="76" t="s">
         <v>1642</v>
       </c>
-      <c r="R25" s="75" t="s">
+      <c r="R25" s="76" t="s">
         <v>1643</v>
       </c>
       <c r="S25" s="21"/>
@@ -18725,45 +18799,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="24" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="S26" s="31"/>
       <c r="V26" s="63"/>
@@ -18773,7 +18847,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -18792,7 +18866,7 @@
       </c>
       <c r="Q27" s="54"/>
       <c r="R27" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="U27" s="35" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$30,4,1)</f>
@@ -18806,11 +18880,11 @@
         <v>567</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>635</v>
@@ -18822,7 +18896,7 @@
         <v>523</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>577</v>
@@ -18831,14 +18905,14 @@
         <v>601</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18" t="s">
         <v>617</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="R28" s="18" t="s">
         <v>617</v>
@@ -18855,49 +18929,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="76" t="s">
         <v>1644</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="76" t="s">
         <v>1645</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="76" t="s">
         <v>1647</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="76" t="s">
         <v>1625</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="K29" s="76" t="s">
         <v>1649</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="76" t="s">
         <v>1650</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="N29" s="75" t="s">
+      <c r="N29" s="76" t="s">
         <v>1651</v>
       </c>
-      <c r="O29" s="75" t="s">
+      <c r="O29" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="P29" s="75" t="s">
+      <c r="P29" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="Q29" s="75" t="s">
+      <c r="Q29" s="76" t="s">
         <v>1639</v>
       </c>
-      <c r="R29" s="75" t="s">
+      <c r="R29" s="76" t="s">
         <v>1652</v>
       </c>
       <c r="S29" s="21"/>
@@ -18910,45 +18984,45 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="R30" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="S30" s="31"/>
       <c r="U30" s="35" t="str">
@@ -18986,20 +19060,20 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="18" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
         <v>900</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>597</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>1803</v>
@@ -19028,37 +19102,37 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="76" t="s">
         <v>1653</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="76" t="s">
         <v>1654</v>
       </c>
-      <c r="G33" s="75" t="s">
+      <c r="G33" s="76" t="s">
         <v>1655</v>
       </c>
-      <c r="H33" s="75" t="s">
+      <c r="H33" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="76" t="s">
         <v>1656</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="76" t="s">
         <v>1657</v>
       </c>
-      <c r="K33" s="75" t="s">
+      <c r="K33" s="76" t="s">
         <v>1658</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="76" t="s">
         <v>1659</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="N33" s="75" t="str">
+      <c r="N33" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19073,29 +19147,29 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -19151,7 +19225,7 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="75" t="str">
+      <c r="D37" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19201,7 +19275,7 @@
         <v>720</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G39" s="54"/>
       <c r="H39" s="54" t="s">
@@ -19228,24 +19302,24 @@
         <v>720</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18" t="s">
         <v>796</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>645</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="N40" s="18" t="s">
         <v>708</v>
@@ -19254,11 +19328,11 @@
         <v>543</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="18" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="S40" s="19"/>
       <c r="V40" s="63"/>
@@ -19268,49 +19342,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="76" t="s">
         <v>1660</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="76" t="s">
         <v>1661</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="76" t="s">
         <v>1607</v>
       </c>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="76" t="s">
         <v>1662</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="76" t="s">
         <v>1663</v>
       </c>
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="76" t="s">
         <v>1664</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="76" t="s">
         <v>1628</v>
       </c>
-      <c r="L41" s="75" t="s">
+      <c r="L41" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="M41" s="75" t="s">
+      <c r="M41" s="76" t="s">
         <v>1665</v>
       </c>
-      <c r="N41" s="75" t="s">
+      <c r="N41" s="76" t="s">
         <v>1666</v>
       </c>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="76" t="s">
         <v>1585</v>
       </c>
-      <c r="P41" s="75" t="s">
+      <c r="P41" s="76" t="s">
         <v>1656</v>
       </c>
-      <c r="Q41" s="75" t="s">
+      <c r="Q41" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="R41" s="75" t="s">
+      <c r="R41" s="76" t="s">
         <v>1667</v>
       </c>
       <c r="S41" s="21"/>
@@ -19319,43 +19393,43 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="63"/>
@@ -19391,7 +19465,7 @@
         <v>591</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>601</v>
@@ -19401,26 +19475,26 @@
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="N44" s="18" t="s">
         <v>601</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="P44" s="18"/>
       <c r="Q44" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>597</v>
@@ -19433,49 +19507,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="76" t="s">
         <v>1668</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="76" t="s">
         <v>1669</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="76" t="s">
         <v>1670</v>
       </c>
-      <c r="G45" s="75" t="s">
+      <c r="G45" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="H45" s="75" t="s">
+      <c r="H45" s="76" t="s">
         <v>1671</v>
       </c>
-      <c r="I45" s="75" t="s">
+      <c r="I45" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="J45" s="75" t="s">
+      <c r="J45" s="76" t="s">
         <v>1672</v>
       </c>
-      <c r="K45" s="75" t="s">
+      <c r="K45" s="76" t="s">
         <v>1673</v>
       </c>
-      <c r="L45" s="75" t="s">
+      <c r="L45" s="76" t="s">
         <v>1674</v>
       </c>
-      <c r="M45" s="75" t="s">
+      <c r="M45" s="76" t="s">
         <v>1675</v>
       </c>
-      <c r="N45" s="75" t="s">
+      <c r="N45" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="O45" s="75" t="s">
+      <c r="O45" s="76" t="s">
         <v>1651</v>
       </c>
-      <c r="P45" s="75" t="s">
+      <c r="P45" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="Q45" s="75" t="s">
+      <c r="Q45" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="R45" s="75" t="s">
+      <c r="R45" s="76" t="s">
         <v>1637</v>
       </c>
       <c r="S45" s="21"/>
@@ -19484,45 +19558,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -19558,14 +19632,14 @@
         <v>774</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>762</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="18" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J48" s="18" t="s">
         <v>597</v>
@@ -19587,10 +19661,10 @@
       </c>
       <c r="P48" s="18"/>
       <c r="Q48" s="18" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="R48" s="18" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="S48" s="19"/>
       <c r="V48" s="63"/>
@@ -19600,49 +19674,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="76" t="s">
         <v>1677</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="76" t="s">
         <v>1678</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="76" t="s">
         <v>1679</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="76" t="s">
         <v>1680</v>
       </c>
-      <c r="H49" s="75" t="s">
+      <c r="H49" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I49" s="75" t="s">
+      <c r="I49" s="76" t="s">
         <v>1655</v>
       </c>
-      <c r="J49" s="75" t="s">
+      <c r="J49" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="K49" s="75" t="s">
+      <c r="K49" s="76" t="s">
         <v>1681</v>
       </c>
-      <c r="L49" s="75" t="s">
+      <c r="L49" s="76" t="s">
         <v>1682</v>
       </c>
-      <c r="M49" s="75" t="s">
+      <c r="M49" s="76" t="s">
         <v>1683</v>
       </c>
-      <c r="N49" s="75" t="s">
+      <c r="N49" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="O49" s="75" t="s">
+      <c r="O49" s="76" t="s">
         <v>1684</v>
       </c>
-      <c r="P49" s="75" t="s">
+      <c r="P49" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="Q49" s="75" t="s">
+      <c r="Q49" s="76" t="s">
         <v>1685</v>
       </c>
-      <c r="R49" s="75" t="s">
+      <c r="R49" s="76" t="s">
         <v>1686</v>
       </c>
       <c r="S49" s="21"/>
@@ -19651,45 +19725,45 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="P50" s="24"/>
       <c r="Q50" s="24" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="R50" s="24" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="S50" s="31"/>
       <c r="V50" s="63"/>
@@ -19699,7 +19773,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -19719,10 +19793,10 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="18" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -19745,16 +19819,16 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="76" t="s">
         <v>1687</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" s="76" t="s">
         <v>1607</v>
       </c>
-      <c r="F53" s="75" t="s">
+      <c r="F53" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="G53" s="75" t="str">
+      <c r="G53" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19776,10 +19850,10 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
       <c r="D54" s="24" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -19842,7 +19916,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="75" t="str">
+      <c r="D57" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19893,7 +19967,7 @@
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="54" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H59" s="54" t="s">
         <v>591</v>
@@ -19902,10 +19976,10 @@
       <c r="J59" s="54"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="M59" s="54" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="N59" s="54"/>
       <c r="O59" s="54" t="s">
@@ -19928,23 +20002,23 @@
         <v>601</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>591</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="18" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>617</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="N60" s="18"/>
       <c r="O60" s="18" t="s">
@@ -19954,7 +20028,7 @@
         <v>651</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="R60" s="18" t="s">
         <v>762</v>
@@ -19967,49 +20041,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="75" t="s">
+      <c r="D61" s="76" t="s">
         <v>1688</v>
       </c>
-      <c r="E61" s="75" t="s">
+      <c r="E61" s="76" t="s">
         <v>1689</v>
       </c>
-      <c r="F61" s="75" t="s">
+      <c r="F61" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="G61" s="75" t="s">
+      <c r="G61" s="76" t="s">
         <v>1690</v>
       </c>
-      <c r="H61" s="75" t="s">
+      <c r="H61" s="76" t="s">
         <v>1691</v>
       </c>
-      <c r="I61" s="75" t="s">
+      <c r="I61" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="J61" s="75" t="s">
+      <c r="J61" s="76" t="s">
         <v>1672</v>
       </c>
-      <c r="K61" s="75" t="s">
+      <c r="K61" s="76" t="s">
         <v>1667</v>
       </c>
-      <c r="L61" s="75" t="s">
+      <c r="L61" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="M61" s="75" t="s">
+      <c r="M61" s="76" t="s">
         <v>1692</v>
       </c>
-      <c r="N61" s="75" t="s">
+      <c r="N61" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="O61" s="75" t="s">
+      <c r="O61" s="76" t="s">
         <v>1693</v>
       </c>
-      <c r="P61" s="75" t="s">
+      <c r="P61" s="76" t="s">
         <v>1694</v>
       </c>
-      <c r="Q61" s="75" t="s">
+      <c r="Q61" s="76" t="s">
         <v>1695</v>
       </c>
-      <c r="R61" s="75" t="s">
+      <c r="R61" s="76" t="s">
         <v>1680</v>
       </c>
       <c r="S61" s="21"/>
@@ -20018,45 +20092,45 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="24" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="Q62" s="24" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="S62" s="31"/>
       <c r="V62" s="63"/>
@@ -20065,26 +20139,26 @@
       <c r="B63" s="12"/>
       <c r="C63" s="34"/>
       <c r="D63" s="54" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="54" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G63" s="54" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="I63" s="54"/>
       <c r="J63" s="54"/>
       <c r="K63" s="54" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="L63" s="54"/>
       <c r="M63" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="N63" s="54"/>
       <c r="O63" s="54"/>
@@ -20096,42 +20170,42 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="18" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>617</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>601</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="18" t="s">
         <v>824</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="R64" s="18"/>
       <c r="S64" s="19"/>
@@ -20142,49 +20216,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="75" t="s">
+      <c r="D65" s="76" t="s">
         <v>1696</v>
       </c>
-      <c r="E65" s="75" t="s">
+      <c r="E65" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="76" t="s">
         <v>1697</v>
       </c>
-      <c r="G65" s="75" t="s">
+      <c r="G65" s="76" t="s">
         <v>1698</v>
       </c>
-      <c r="H65" s="75" t="s">
+      <c r="H65" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="I65" s="75" t="s">
+      <c r="I65" s="76" t="s">
         <v>1699</v>
       </c>
-      <c r="J65" s="75" t="s">
+      <c r="J65" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="K65" s="75" t="s">
+      <c r="K65" s="76" t="s">
         <v>1700</v>
       </c>
-      <c r="L65" s="75" t="s">
+      <c r="L65" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="M65" s="75" t="s">
+      <c r="M65" s="76" t="s">
         <v>1693</v>
       </c>
-      <c r="N65" s="75" t="s">
+      <c r="N65" s="76" t="s">
         <v>1701</v>
       </c>
-      <c r="O65" s="75" t="s">
+      <c r="O65" s="76" t="s">
         <v>1702</v>
       </c>
-      <c r="P65" s="75" t="s">
+      <c r="P65" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="Q65" s="75" t="s">
+      <c r="Q65" s="76" t="s">
         <v>1703</v>
       </c>
-      <c r="R65" s="75" t="s">
+      <c r="R65" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S65" s="21"/>
@@ -20193,42 +20267,42 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
       <c r="D66" s="24" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O66" s="24" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="P66" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="Q66" s="24" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="31"/>
@@ -20238,7 +20312,7 @@
       <c r="B67" s="12"/>
       <c r="C67" s="34"/>
       <c r="D67" s="54" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="54"/>
@@ -20251,7 +20325,7 @@
       <c r="M67" s="54"/>
       <c r="N67" s="54"/>
       <c r="O67" s="54" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
@@ -20261,7 +20335,7 @@
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="18" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>714</v>
@@ -20270,36 +20344,36 @@
         <v>633</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>601</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L68" s="18" t="s">
         <v>651</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="N68" s="18" t="s">
         <v>647</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="P68" s="18"/>
       <c r="Q68" s="18" t="s">
         <v>832</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="S68" s="19"/>
       <c r="V68" s="63"/>
@@ -20309,49 +20383,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="76" t="s">
         <v>1704</v>
       </c>
-      <c r="E69" s="75" t="s">
+      <c r="E69" s="76" t="s">
         <v>1705</v>
       </c>
-      <c r="F69" s="75" t="s">
+      <c r="F69" s="76" t="s">
         <v>1706</v>
       </c>
-      <c r="G69" s="75" t="s">
+      <c r="G69" s="76" t="s">
         <v>1707</v>
       </c>
-      <c r="H69" s="75" t="s">
+      <c r="H69" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="I69" s="75" t="s">
+      <c r="I69" s="76" t="s">
         <v>1708</v>
       </c>
-      <c r="J69" s="75" t="s">
+      <c r="J69" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="K69" s="75" t="s">
+      <c r="K69" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="L69" s="75" t="s">
+      <c r="L69" s="76" t="s">
         <v>1694</v>
       </c>
-      <c r="M69" s="75" t="s">
+      <c r="M69" s="76" t="s">
         <v>1709</v>
       </c>
-      <c r="N69" s="75" t="s">
+      <c r="N69" s="76" t="s">
         <v>1710</v>
       </c>
-      <c r="O69" s="75" t="s">
+      <c r="O69" s="76" t="s">
         <v>1711</v>
       </c>
-      <c r="P69" s="75" t="s">
+      <c r="P69" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="Q69" s="75" t="s">
+      <c r="Q69" s="76" t="s">
         <v>1712</v>
       </c>
-      <c r="R69" s="75" t="s">
+      <c r="R69" s="76" t="s">
         <v>1713</v>
       </c>
       <c r="S69" s="21"/>
@@ -20360,45 +20434,45 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
       <c r="D70" s="24" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J70" s="24"/>
       <c r="K70" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="M70" s="24" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P70" s="24"/>
       <c r="Q70" s="24" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R70" s="24" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="S70" s="31"/>
       <c r="V70" s="63"/>
@@ -20414,12 +20488,12 @@
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="54" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
@@ -20427,7 +20501,7 @@
       <c r="N71" s="54"/>
       <c r="O71" s="54"/>
       <c r="P71" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="Q71" s="54" t="s">
         <v>884</v>
@@ -20445,32 +20519,32 @@
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>567</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="M72" s="18"/>
       <c r="N72" s="18" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="Q72" s="18" t="s">
         <v>884</v>
@@ -20484,49 +20558,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="76" t="s">
         <v>1715</v>
       </c>
-      <c r="F73" s="75" t="s">
+      <c r="F73" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="G73" s="75" t="s">
+      <c r="G73" s="76" t="s">
         <v>1716</v>
       </c>
-      <c r="H73" s="75" t="s">
+      <c r="H73" s="76" t="s">
         <v>1644</v>
       </c>
-      <c r="I73" s="75" t="s">
+      <c r="I73" s="76" t="s">
         <v>1717</v>
       </c>
-      <c r="J73" s="75" t="s">
+      <c r="J73" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="K73" s="75" t="s">
+      <c r="K73" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="L73" s="75" t="s">
+      <c r="L73" s="76" t="s">
         <v>1718</v>
       </c>
-      <c r="M73" s="75" t="s">
+      <c r="M73" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="N73" s="75" t="s">
+      <c r="N73" s="76" t="s">
         <v>1719</v>
       </c>
-      <c r="O73" s="75" t="s">
+      <c r="O73" s="76" t="s">
         <v>1720</v>
       </c>
-      <c r="P73" s="75" t="s">
+      <c r="P73" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="Q73" s="75" t="s">
+      <c r="Q73" s="76" t="s">
         <v>1721</v>
       </c>
-      <c r="R73" s="75" t="s">
+      <c r="R73" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S73" s="21"/>
@@ -20535,42 +20609,42 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="P74" s="24" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="Q74" s="24" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="R74" s="24"/>
       <c r="S74" s="31"/>
@@ -20587,17 +20661,17 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="J75" s="54" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="K75" s="54" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="L75" s="54"/>
       <c r="M75" s="54" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="N75" s="54"/>
       <c r="O75" s="54"/>
@@ -20609,45 +20683,45 @@
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="18" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>665</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H76" s="18"/>
       <c r="I76" s="18" t="s">
         <v>704</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>601</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="N76" s="18" t="s">
         <v>784</v>
       </c>
       <c r="O76" s="18"/>
       <c r="P76" s="18" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="Q76" s="18" t="s">
         <v>567</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="S76" s="19"/>
       <c r="V76" s="63"/>
@@ -20657,49 +20731,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="75" t="s">
+      <c r="D77" s="76" t="s">
         <v>1722</v>
       </c>
-      <c r="E77" s="75" t="s">
+      <c r="E77" s="76" t="s">
         <v>1723</v>
       </c>
-      <c r="F77" s="75" t="s">
+      <c r="F77" s="76" t="s">
         <v>1724</v>
       </c>
-      <c r="G77" s="75" t="s">
+      <c r="G77" s="76" t="s">
         <v>1655</v>
       </c>
-      <c r="H77" s="75" t="s">
+      <c r="H77" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I77" s="75" t="s">
+      <c r="I77" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="J77" s="75" t="s">
+      <c r="J77" s="76" t="s">
         <v>1725</v>
       </c>
-      <c r="K77" s="75" t="s">
+      <c r="K77" s="76" t="s">
         <v>1726</v>
       </c>
-      <c r="L77" s="75" t="s">
+      <c r="L77" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="M77" s="75" t="s">
+      <c r="M77" s="76" t="s">
         <v>1727</v>
       </c>
-      <c r="N77" s="75" t="s">
+      <c r="N77" s="76" t="s">
         <v>1612</v>
       </c>
-      <c r="O77" s="75" t="s">
+      <c r="O77" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="P77" s="75" t="s">
+      <c r="P77" s="76" t="s">
         <v>1728</v>
       </c>
-      <c r="Q77" s="75" t="s">
+      <c r="Q77" s="76" t="s">
         <v>1644</v>
       </c>
-      <c r="R77" s="75" t="s">
+      <c r="R77" s="76" t="s">
         <v>1676</v>
       </c>
       <c r="S77" s="21"/>
@@ -20708,45 +20782,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="24" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q78" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="R78" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="S78" s="31"/>
       <c r="V78" s="63"/>
@@ -20761,7 +20835,7 @@
       <c r="H79" s="54"/>
       <c r="I79" s="54"/>
       <c r="J79" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K79" s="54"/>
       <c r="L79" s="54"/>
@@ -20782,14 +20856,14 @@
         <v>599</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18" t="s">
         <v>691</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J80" s="18" t="s">
         <v>1803</v>
@@ -20802,10 +20876,10 @@
         <v>776</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="P80" s="18" t="s">
         <v>601</v>
@@ -20822,49 +20896,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="E81" s="75" t="s">
+      <c r="E81" s="76" t="s">
         <v>1729</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="F81" s="76" t="s">
         <v>1730</v>
       </c>
-      <c r="G81" s="75" t="s">
+      <c r="G81" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="H81" s="75" t="s">
+      <c r="H81" s="76" t="s">
         <v>1659</v>
       </c>
-      <c r="I81" s="75" t="s">
+      <c r="I81" s="76" t="s">
         <v>1731</v>
       </c>
-      <c r="J81" s="75" t="s">
+      <c r="J81" s="76" t="s">
         <v>1606</v>
       </c>
-      <c r="K81" s="75" t="s">
+      <c r="K81" s="76" t="s">
         <v>1732</v>
       </c>
-      <c r="L81" s="75" t="s">
+      <c r="L81" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="M81" s="75" t="s">
+      <c r="M81" s="76" t="s">
         <v>1733</v>
       </c>
-      <c r="N81" s="75" t="s">
+      <c r="N81" s="76" t="s">
         <v>1734</v>
       </c>
-      <c r="O81" s="75" t="s">
+      <c r="O81" s="76" t="s">
         <v>1735</v>
       </c>
-      <c r="P81" s="75" t="s">
+      <c r="P81" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="Q81" s="75" t="s">
+      <c r="Q81" s="76" t="s">
         <v>1736</v>
       </c>
-      <c r="R81" s="75" t="s">
+      <c r="R81" s="76" t="s">
         <v>1608</v>
       </c>
       <c r="S81" s="21"/>
@@ -20873,42 +20947,42 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="24" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="R82" s="24"/>
       <c r="S82" s="31"/>
@@ -20918,7 +20992,7 @@
       <c r="B83" s="12"/>
       <c r="C83" s="34"/>
       <c r="D83" s="54" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="54"/>
@@ -20926,17 +21000,17 @@
       <c r="H83" s="54"/>
       <c r="I83" s="54"/>
       <c r="J83" s="54" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="K83" s="54"/>
       <c r="L83" s="54" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M83" s="54"/>
       <c r="N83" s="54"/>
       <c r="O83" s="54"/>
       <c r="P83" s="54" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="Q83" s="54" t="s">
         <v>653</v>
@@ -20947,39 +21021,39 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
       <c r="D84" s="18" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>601</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H84" s="18"/>
       <c r="I84" s="18" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="K84" s="18" t="s">
         <v>601</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M84" s="18"/>
       <c r="N84" s="18" t="s">
         <v>597</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="Q84" s="18" t="s">
         <v>653</v>
@@ -20993,49 +21067,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="75" t="s">
+      <c r="D85" s="76" t="s">
         <v>1737</v>
       </c>
-      <c r="E85" s="75" t="s">
+      <c r="E85" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="G85" s="75" t="s">
+      <c r="G85" s="76" t="s">
         <v>1717</v>
       </c>
-      <c r="H85" s="75" t="s">
+      <c r="H85" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="I85" s="75" t="s">
+      <c r="I85" s="76" t="s">
         <v>1672</v>
       </c>
-      <c r="J85" s="75" t="s">
+      <c r="J85" s="76" t="s">
         <v>1667</v>
       </c>
-      <c r="K85" s="75" t="s">
+      <c r="K85" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="L85" s="75" t="s">
+      <c r="L85" s="76" t="s">
         <v>1738</v>
       </c>
-      <c r="M85" s="75" t="s">
+      <c r="M85" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="N85" s="75" t="s">
+      <c r="N85" s="76" t="s">
         <v>1739</v>
       </c>
-      <c r="O85" s="75" t="s">
+      <c r="O85" s="76" t="s">
         <v>1638</v>
       </c>
-      <c r="P85" s="75" t="s">
+      <c r="P85" s="76" t="s">
         <v>1740</v>
       </c>
-      <c r="Q85" s="75" t="s">
+      <c r="Q85" s="76" t="s">
         <v>1741</v>
       </c>
-      <c r="R85" s="75" t="s">
+      <c r="R85" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S85" s="21"/>
@@ -21044,42 +21118,42 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="24" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="P86" s="24" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="Q86" s="24" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="R86" s="24"/>
       <c r="S86" s="31"/>
@@ -21092,11 +21166,11 @@
         <v>814</v>
       </c>
       <c r="E87" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="F87" s="54"/>
       <c r="G87" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
@@ -21106,7 +21180,7 @@
       <c r="M87" s="54"/>
       <c r="N87" s="54"/>
       <c r="O87" s="54" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P87" s="54"/>
       <c r="Q87" s="54"/>
@@ -21141,19 +21215,19 @@
       </c>
       <c r="L88" s="18"/>
       <c r="M88" s="18" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="N88" s="18" t="s">
         <v>557</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="R88" s="18"/>
       <c r="S88" s="19"/>
@@ -21164,49 +21238,49 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="75" t="s">
+      <c r="D89" s="76" t="s">
         <v>1742</v>
       </c>
-      <c r="E89" s="75" t="s">
+      <c r="E89" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="F89" s="75" t="s">
+      <c r="F89" s="76" t="s">
         <v>1743</v>
       </c>
-      <c r="G89" s="75" t="s">
+      <c r="G89" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="H89" s="75" t="s">
+      <c r="H89" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="I89" s="75" t="s">
+      <c r="I89" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="J89" s="75" t="s">
+      <c r="J89" s="76" t="s">
         <v>1744</v>
       </c>
-      <c r="K89" s="75" t="s">
+      <c r="K89" s="76" t="s">
         <v>1680</v>
       </c>
-      <c r="L89" s="75" t="s">
+      <c r="L89" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="M89" s="75" t="s">
+      <c r="M89" s="76" t="s">
         <v>1745</v>
       </c>
-      <c r="N89" s="75" t="s">
+      <c r="N89" s="76" t="s">
         <v>1746</v>
       </c>
-      <c r="O89" s="75" t="s">
+      <c r="O89" s="76" t="s">
         <v>1747</v>
       </c>
-      <c r="P89" s="75" t="s">
+      <c r="P89" s="76" t="s">
         <v>1731</v>
       </c>
-      <c r="Q89" s="75" t="s">
+      <c r="Q89" s="76" t="s">
         <v>1748</v>
       </c>
-      <c r="R89" s="75" t="s">
+      <c r="R89" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="S89" s="21"/>
@@ -21215,44 +21289,44 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="N90" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q90" s="24" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="R90" s="24"/>
       <c r="S90" s="31"/>
@@ -21264,13 +21338,13 @@
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
       <c r="F91" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
       <c r="J91" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
@@ -21280,10 +21354,10 @@
         <v>722</v>
       </c>
       <c r="P91" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="Q91" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="R91" s="54"/>
       <c r="V91" s="36"/>
@@ -21291,16 +21365,16 @@
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
       <c r="D92" s="18" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>567</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="18" t="s">
@@ -21310,12 +21384,12 @@
         <v>541</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="O92" s="18" t="s">
         <v>722</v>
@@ -21337,49 +21411,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="76" t="s">
         <v>1749</v>
       </c>
-      <c r="E93" s="75" t="s">
+      <c r="E93" s="76" t="s">
         <v>1750</v>
       </c>
-      <c r="F93" s="75" t="s">
+      <c r="F93" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="G93" s="75" t="s">
+      <c r="G93" s="76" t="s">
         <v>1751</v>
       </c>
-      <c r="H93" s="75" t="s">
+      <c r="H93" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="I93" s="75" t="s">
+      <c r="I93" s="76" t="s">
         <v>1752</v>
       </c>
-      <c r="J93" s="75" t="s">
+      <c r="J93" s="76" t="s">
         <v>1689</v>
       </c>
-      <c r="K93" s="75" t="s">
+      <c r="K93" s="76" t="s">
         <v>1753</v>
       </c>
-      <c r="L93" s="75" t="s">
+      <c r="L93" s="76" t="s">
         <v>1754</v>
       </c>
-      <c r="M93" s="75" t="s">
+      <c r="M93" s="76" t="s">
         <v>1755</v>
       </c>
-      <c r="N93" s="75" t="s">
+      <c r="N93" s="76" t="s">
         <v>1756</v>
       </c>
-      <c r="O93" s="75" t="s">
+      <c r="O93" s="76" t="s">
         <v>1757</v>
       </c>
-      <c r="P93" s="75" t="s">
+      <c r="P93" s="76" t="s">
         <v>1654</v>
       </c>
-      <c r="Q93" s="75" t="s">
+      <c r="Q93" s="76" t="s">
         <v>1671</v>
       </c>
-      <c r="R93" s="75" t="s">
+      <c r="R93" s="76" t="s">
         <v>1736</v>
       </c>
       <c r="S93" s="21"/>
@@ -21388,43 +21462,43 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="24" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="Q94" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="R94" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="S94" s="31"/>
       <c r="V94" s="7"/>
@@ -21436,10 +21510,10 @@
       <c r="E95" s="54"/>
       <c r="F95" s="54"/>
       <c r="G95" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H95" s="54" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="I95" s="54"/>
       <c r="J95" s="54"/>
@@ -21458,13 +21532,13 @@
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>704</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>882</v>
@@ -21486,28 +21560,28 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="75" t="s">
+      <c r="D97" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="E97" s="75" t="s">
+      <c r="E97" s="76" t="s">
         <v>1758</v>
       </c>
-      <c r="F97" s="75" t="s">
+      <c r="F97" s="76" t="s">
         <v>1759</v>
       </c>
-      <c r="G97" s="75" t="s">
+      <c r="G97" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="H97" s="75" t="s">
+      <c r="H97" s="76" t="s">
         <v>1760</v>
       </c>
-      <c r="I97" s="75" t="s">
+      <c r="I97" s="76" t="s">
         <v>1761</v>
       </c>
-      <c r="J97" s="75" t="s">
+      <c r="J97" s="76" t="s">
         <v>1762</v>
       </c>
-      <c r="K97" s="75" t="str">
+      <c r="K97" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21527,16 +21601,16 @@
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
@@ -21595,7 +21669,7 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="75" t="str">
+      <c r="D101" s="76" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21644,7 +21718,7 @@
       <c r="E103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -21656,7 +21730,7 @@
       </c>
       <c r="N103" s="54"/>
       <c r="O103" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="P103" s="54"/>
       <c r="Q103" s="54"/>
@@ -21666,13 +21740,13 @@
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
       <c r="D104" s="18" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>687</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>541</v>
@@ -21694,17 +21768,17 @@
         <v>697</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O104" s="18" t="s">
         <v>617</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="Q104" s="18"/>
       <c r="R104" s="18" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
@@ -21714,49 +21788,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="76" t="s">
         <v>1763</v>
       </c>
-      <c r="E105" s="75" t="s">
+      <c r="E105" s="76" t="s">
         <v>1764</v>
       </c>
-      <c r="F105" s="75" t="s">
+      <c r="F105" s="76" t="s">
         <v>1765</v>
       </c>
-      <c r="G105" s="75" t="s">
+      <c r="G105" s="76" t="s">
         <v>1689</v>
       </c>
-      <c r="H105" s="75" t="s">
+      <c r="H105" s="76" t="s">
         <v>1744</v>
       </c>
-      <c r="I105" s="75" t="s">
+      <c r="I105" s="76" t="s">
         <v>1733</v>
       </c>
-      <c r="J105" s="75" t="s">
+      <c r="J105" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="K105" s="75" t="s">
+      <c r="K105" s="76" t="s">
         <v>1766</v>
       </c>
-      <c r="L105" s="75" t="s">
+      <c r="L105" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="M105" s="75" t="s">
+      <c r="M105" s="76" t="s">
         <v>1767</v>
       </c>
-      <c r="N105" s="75" t="s">
+      <c r="N105" s="76" t="s">
         <v>1768</v>
       </c>
-      <c r="O105" s="75" t="s">
+      <c r="O105" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="P105" s="75" t="s">
+      <c r="P105" s="76" t="s">
         <v>1769</v>
       </c>
-      <c r="Q105" s="75" t="s">
+      <c r="Q105" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="R105" s="75" t="s">
+      <c r="R105" s="76" t="s">
         <v>1770</v>
       </c>
       <c r="S105" s="21"/>
@@ -21765,45 +21839,45 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="24" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="L106" s="24"/>
       <c r="M106" s="24" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="N106" s="24" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="Q106" s="24"/>
       <c r="R106" s="24" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="S106" s="31"/>
       <c r="V106" s="7"/>
@@ -21813,7 +21887,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="54"/>
       <c r="E107" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
@@ -21821,13 +21895,13 @@
       <c r="I107" s="54"/>
       <c r="J107" s="54"/>
       <c r="K107" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="L107" s="54"/>
       <c r="M107" s="54"/>
       <c r="N107" s="54"/>
-      <c r="O107" s="74" t="s">
-        <v>2278</v>
+      <c r="O107" s="75" t="s">
+        <v>2279</v>
       </c>
       <c r="P107" s="54"/>
       <c r="Q107" s="54"/>
@@ -21852,7 +21926,7 @@
         <v>870</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18" t="s">
@@ -21862,20 +21936,20 @@
         <v>529</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="N108" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="O108" s="69" t="s">
-        <v>2277</v>
+      <c r="O108" s="70" t="s">
+        <v>2278</v>
       </c>
       <c r="P108" s="18" t="s">
         <v>762</v>
       </c>
       <c r="Q108" s="18"/>
       <c r="R108" s="18" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="S108" s="19"/>
       <c r="V108" s="7"/>
@@ -21885,49 +21959,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="76" t="s">
         <v>1771</v>
       </c>
-      <c r="E109" s="75" t="s">
+      <c r="E109" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="F109" s="75" t="s">
+      <c r="F109" s="76" t="s">
         <v>1772</v>
       </c>
-      <c r="G109" s="75" t="s">
+      <c r="G109" s="76" t="s">
         <v>1773</v>
       </c>
-      <c r="H109" s="75" t="s">
+      <c r="H109" s="76" t="s">
         <v>1774</v>
       </c>
-      <c r="I109" s="75" t="s">
+      <c r="I109" s="76" t="s">
         <v>1775</v>
       </c>
-      <c r="J109" s="75" t="s">
+      <c r="J109" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="K109" s="75" t="s">
+      <c r="K109" s="76" t="s">
         <v>1714</v>
       </c>
-      <c r="L109" s="75" t="s">
+      <c r="L109" s="76" t="s">
         <v>1743</v>
       </c>
-      <c r="M109" s="75" t="s">
+      <c r="M109" s="76" t="s">
         <v>1776</v>
       </c>
-      <c r="N109" s="75" t="s">
+      <c r="N109" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="O109" s="75" t="s">
+      <c r="O109" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="P109" s="75" t="s">
+      <c r="P109" s="76" t="s">
         <v>1680</v>
       </c>
-      <c r="Q109" s="75" t="s">
+      <c r="Q109" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="R109" s="75" t="s">
+      <c r="R109" s="76" t="s">
         <v>1777</v>
       </c>
       <c r="S109" s="21"/>
@@ -21936,45 +22010,45 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="24" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="J110" s="24"/>
       <c r="K110" s="24" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="N110" s="24" t="s">
-        <v>1918</v>
-      </c>
-      <c r="O110" s="70" t="s">
-        <v>2297</v>
+        <v>1919</v>
+      </c>
+      <c r="O110" s="71" t="s">
+        <v>2298</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="Q110" s="24"/>
       <c r="R110" s="24" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="S110" s="31"/>
       <c r="V110" s="7"/>
@@ -21983,14 +22057,14 @@
       <c r="B111" s="12"/>
       <c r="C111" s="34"/>
       <c r="D111" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E111" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="F111" s="54"/>
       <c r="G111" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
@@ -21998,10 +22072,10 @@
       <c r="K111" s="54"/>
       <c r="L111" s="54"/>
       <c r="M111" s="54" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="N111" s="54" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="O111" s="54"/>
       <c r="P111" s="54"/>
@@ -22014,38 +22088,38 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="18" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>617</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>722</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="K112" s="18"/>
       <c r="L112" s="18" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="P112" s="18" t="s">
         <v>858</v>
@@ -22062,49 +22136,49 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="76" t="s">
         <v>1725</v>
       </c>
-      <c r="E113" s="75" t="s">
+      <c r="E113" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="76" t="s">
         <v>1756</v>
       </c>
-      <c r="G113" s="75" t="s">
+      <c r="G113" s="76" t="s">
         <v>1757</v>
       </c>
-      <c r="H113" s="75" t="s">
+      <c r="H113" s="76" t="s">
         <v>1638</v>
       </c>
-      <c r="I113" s="75" t="s">
+      <c r="I113" s="76" t="s">
         <v>1778</v>
       </c>
-      <c r="J113" s="75" t="s">
+      <c r="J113" s="76" t="s">
         <v>1779</v>
       </c>
-      <c r="K113" s="75" t="s">
+      <c r="K113" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="L113" s="75" t="s">
+      <c r="L113" s="76" t="s">
         <v>1780</v>
       </c>
-      <c r="M113" s="75" t="s">
+      <c r="M113" s="76" t="s">
         <v>1781</v>
       </c>
-      <c r="N113" s="75" t="s">
+      <c r="N113" s="76" t="s">
         <v>1782</v>
       </c>
-      <c r="O113" s="75" t="s">
+      <c r="O113" s="76" t="s">
         <v>1638</v>
       </c>
-      <c r="P113" s="75" t="s">
+      <c r="P113" s="76" t="s">
         <v>1783</v>
       </c>
-      <c r="Q113" s="75" t="s">
+      <c r="Q113" s="76" t="s">
         <v>1784</v>
       </c>
-      <c r="R113" s="75" t="s">
+      <c r="R113" s="76" t="s">
         <v>1608</v>
       </c>
       <c r="S113" s="21"/>
@@ -22113,44 +22187,44 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="24" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="24" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="M114" s="24" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="N114" s="24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O114" s="24" t="s">
         <v>1952</v>
       </c>
-      <c r="O114" s="24" t="s">
-        <v>1951</v>
-      </c>
       <c r="P114" s="24" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="Q114" s="24" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="R114" s="24"/>
       <c r="S114" s="31"/>
@@ -22167,7 +22241,7 @@
       </c>
       <c r="H115" s="54"/>
       <c r="I115" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="J115" s="54" t="s">
         <v>814</v>
@@ -22181,7 +22255,7 @@
       <c r="O115" s="54"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="54" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="R115" s="54"/>
       <c r="V115" s="36"/>
@@ -22189,7 +22263,7 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
       <c r="D116" s="18" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>601</v>
@@ -22217,14 +22291,14 @@
         <v>896</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="O116" s="18"/>
       <c r="P116" s="18" t="s">
         <v>780</v>
       </c>
       <c r="Q116" s="18" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="R116" s="18"/>
       <c r="S116" s="19"/>
@@ -22286,42 +22360,42 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="24" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="24" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="L118" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="M118" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="N118" s="24" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O118" s="24"/>
       <c r="P118" s="24" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="Q118" s="24" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="R118" s="24"/>
       <c r="S118" s="31"/>
@@ -22335,7 +22409,7 @@
       <c r="F119" s="54"/>
       <c r="G119" s="54"/>
       <c r="H119" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="I119" s="54"/>
       <c r="J119" s="54"/>
@@ -22345,21 +22419,21 @@
       <c r="N119" s="54"/>
       <c r="O119" s="54"/>
       <c r="P119" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="Q119" s="54"/>
       <c r="R119" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="V119" s="36"/>
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
       <c r="D120" s="18" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>1803</v>
@@ -22372,23 +22446,23 @@
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="18" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K120" s="18" t="s">
         <v>567</v>
       </c>
       <c r="L120" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M120" s="18" t="s">
         <v>661</v>
       </c>
       <c r="N120" s="18"/>
       <c r="O120" s="18" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="P120" s="18" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="Q120" s="18" t="s">
         <v>1803</v>
@@ -22404,49 +22478,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D121" s="76" t="s">
         <v>1788</v>
       </c>
-      <c r="E121" s="75" t="s">
+      <c r="E121" s="76" t="s">
         <v>1642</v>
       </c>
-      <c r="F121" s="75" t="s">
+      <c r="F121" s="76" t="s">
         <v>1657</v>
       </c>
-      <c r="G121" s="75" t="s">
+      <c r="G121" s="76" t="s">
         <v>1789</v>
       </c>
-      <c r="H121" s="75" t="s">
+      <c r="H121" s="76" t="s">
         <v>1689</v>
       </c>
-      <c r="I121" s="75" t="s">
+      <c r="I121" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="J121" s="75" t="s">
+      <c r="J121" s="76" t="s">
         <v>1790</v>
       </c>
-      <c r="K121" s="75" t="s">
+      <c r="K121" s="76" t="s">
         <v>1644</v>
       </c>
-      <c r="L121" s="75" t="s">
+      <c r="L121" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="M121" s="75" t="s">
+      <c r="M121" s="76" t="s">
         <v>1791</v>
       </c>
-      <c r="N121" s="75" t="s">
+      <c r="N121" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="O121" s="75" t="s">
+      <c r="O121" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="P121" s="75" t="s">
+      <c r="P121" s="76" t="s">
         <v>1692</v>
       </c>
-      <c r="Q121" s="75" t="s">
+      <c r="Q121" s="76" t="s">
         <v>1711</v>
       </c>
-      <c r="R121" s="75" t="s">
+      <c r="R121" s="76" t="s">
         <v>1606</v>
       </c>
       <c r="S121" s="21"/>
@@ -22455,45 +22529,45 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="22"/>
       <c r="D122" s="24" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="I122" s="24"/>
       <c r="J122" s="24" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="M122" s="24" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="N122" s="24"/>
       <c r="O122" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="Q122" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="R122" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
@@ -22511,10 +22585,10 @@
       <c r="K123" s="54"/>
       <c r="L123" s="54"/>
       <c r="M123" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="N123" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="O123" s="54"/>
       <c r="P123" s="54"/>
@@ -22529,7 +22603,7 @@
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G124" s="18" t="s">
         <v>597</v>
@@ -22545,17 +22619,17 @@
         <v>567</v>
       </c>
       <c r="L124" s="18" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="M124" s="18" t="s">
         <v>617</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="O124" s="18"/>
       <c r="P124" s="18" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="Q124" s="18" t="s">
         <v>601</v>
@@ -22571,49 +22645,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="75" t="s">
+      <c r="D125" s="76" t="s">
         <v>1792</v>
       </c>
-      <c r="E125" s="75" t="s">
+      <c r="E125" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="F125" s="75" t="s">
+      <c r="F125" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="G125" s="75" t="s">
+      <c r="G125" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="H125" s="75" t="s">
+      <c r="H125" s="76" t="s">
         <v>1744</v>
       </c>
-      <c r="I125" s="75" t="s">
+      <c r="I125" s="76" t="s">
         <v>1680</v>
       </c>
-      <c r="J125" s="75" t="s">
+      <c r="J125" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="K125" s="75" t="s">
+      <c r="K125" s="76" t="s">
         <v>1644</v>
       </c>
-      <c r="L125" s="75" t="s">
+      <c r="L125" s="76" t="s">
         <v>1793</v>
       </c>
-      <c r="M125" s="75" t="s">
+      <c r="M125" s="76" t="s">
         <v>1652</v>
       </c>
-      <c r="N125" s="75" t="s">
+      <c r="N125" s="76" t="s">
         <v>1607</v>
       </c>
-      <c r="O125" s="75" t="s">
+      <c r="O125" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="P125" s="75" t="s">
+      <c r="P125" s="76" t="s">
         <v>1785</v>
       </c>
-      <c r="Q125" s="75" t="s">
+      <c r="Q125" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="R125" s="75" t="s">
+      <c r="R125" s="76" t="s">
         <v>1764</v>
       </c>
       <c r="S125" s="21"/>
@@ -22622,43 +22696,43 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="24" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="J126" s="24"/>
       <c r="K126" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="M126" s="24" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="N126" s="24" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="Q126" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="R126" s="24" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -22669,17 +22743,17 @@
       <c r="D127" s="54"/>
       <c r="E127" s="54"/>
       <c r="F127" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="G127" s="54" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H127" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="I127" s="54"/>
       <c r="J127" s="54" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K127" s="54" t="s">
         <v>754</v>
@@ -22703,7 +22777,7 @@
         <v>900</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H128" s="18" t="s">
         <v>756</v>
@@ -22712,7 +22786,7 @@
         <v>776</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="K128" s="18" t="s">
         <v>754</v>
@@ -22734,37 +22808,37 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="76" t="s">
         <v>1794</v>
       </c>
-      <c r="E129" s="75" t="s">
+      <c r="E129" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="F129" s="75" t="s">
+      <c r="F129" s="76" t="s">
         <v>1654</v>
       </c>
-      <c r="G129" s="75" t="s">
+      <c r="G129" s="76" t="s">
         <v>1727</v>
       </c>
-      <c r="H129" s="75" t="s">
+      <c r="H129" s="76" t="s">
         <v>1619</v>
       </c>
-      <c r="I129" s="75" t="s">
+      <c r="I129" s="76" t="s">
         <v>1733</v>
       </c>
-      <c r="J129" s="75" t="s">
+      <c r="J129" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="K129" s="75" t="s">
+      <c r="K129" s="76" t="s">
         <v>1795</v>
       </c>
-      <c r="L129" s="75" t="s">
+      <c r="L129" s="76" t="s">
         <v>1773</v>
       </c>
-      <c r="M129" s="75" t="s">
+      <c r="M129" s="76" t="s">
         <v>1608</v>
       </c>
-      <c r="N129" s="75" t="s">
+      <c r="N129" s="76" t="s">
         <v>38</v>
       </c>
       <c r="O129" s="41"/>
@@ -22777,29 +22851,29 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="22"/>
       <c r="D130" s="24" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="24" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="J130" s="24" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="K130" s="24" t="s">
         <v>2403</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="M130" s="24"/>
       <c r="N130" s="24"/>

--- a/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503311A2-E086-4BAE-ADF4-80DFDA1A8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C5495-A113-425A-A0F2-B33071E5A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="286" r:id="rId2"/>
     <sheet name="缺字表" sheetId="285" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="325" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="326" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId6"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
@@ -12377,7 +12377,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -16856,7 +16856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F574E-71F7-41EF-A4DF-D551250A032F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8EF5FF-A900-4B77-84E3-9FC7A3F72798}">
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17870,7 +17870,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>

--- a/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《蘭亭集序》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F931C2D-9F4A-45FB-A077-E77215B0FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE39AD-D87B-492E-A2DE-52E9A3706609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="47895" yWindow="-75" windowWidth="19410" windowHeight="15585" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -8956,16 +8956,16 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color rgb="FF0070C0"/>
       <name val="Sitka Text Semibold"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFCC"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="72"/>
@@ -9077,11 +9077,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -9247,11 +9247,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="5">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="5">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -13862,8 +13862,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -23418,9 +23418,9 @@
   <sheetPr codeName="工作表G���_"/>
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:R482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -24554,10 +24554,6 @@
       <c r="R27" s="52" t="s">
         <v>2180</v>
       </c>
-      <c r="U27" s="32" t="str">
-        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$30,4,1)</f>
-        <v>n</v>
-      </c>
       <c r="V27" s="47"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24604,10 +24600,7 @@
         <v>617</v>
       </c>
       <c r="S28" s="17"/>
-      <c r="U28" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
+      <c r="U28" s="32"/>
       <c r="V28" s="47"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -24661,10 +24654,7 @@
         <v>1563</v>
       </c>
       <c r="S29" s="19"/>
-      <c r="U29" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
+      <c r="U29" s="32"/>
       <c r="V29" s="47"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24711,10 +24701,7 @@
         <v>2219</v>
       </c>
       <c r="S30" s="28"/>
-      <c r="U30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
+      <c r="U30" s="32"/>
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
@@ -24737,10 +24724,6 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="U31" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
       <c r="V31" s="47"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24777,10 +24760,7 @@
       <c r="Q32" s="53"/>
       <c r="R32" s="53"/>
       <c r="S32" s="17"/>
-      <c r="U32" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
+      <c r="U32" s="32"/>
       <c r="V32" s="47"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
